--- a/data/2016_AukeCoho_qPCR_20171024.xlsx
+++ b/data/2016_AukeCoho_qPCR_20171024.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Negorashi2011/Dropbox/Working_docs/Yang salmon qPCR/2017_2016_Auke_qPCR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3340271-820F-2546-BDA3-4042B763A1DF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="32960" windowHeight="19400"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="23560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,16 +18,19 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$449</definedName>
+  </definedNames>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -839,8 +843,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -944,9 +948,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -983,7 +987,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1053,1102 +1056,1102 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="366"/>
                 <c:pt idx="0">
-                  <c:v>42574.0</c:v>
+                  <c:v>42574</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42574.0</c:v>
+                  <c:v>42574</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42574.0</c:v>
+                  <c:v>42574</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42574.0</c:v>
+                  <c:v>42574</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42574.0</c:v>
+                  <c:v>42574</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42574.0</c:v>
+                  <c:v>42574</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42575.0</c:v>
+                  <c:v>42575</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42575.0</c:v>
+                  <c:v>42575</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42575.0</c:v>
+                  <c:v>42575</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42575.0</c:v>
+                  <c:v>42575</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42575.0</c:v>
+                  <c:v>42575</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42575.0</c:v>
+                  <c:v>42575</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42576.0</c:v>
+                  <c:v>42576</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42576.0</c:v>
+                  <c:v>42576</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42576.0</c:v>
+                  <c:v>42576</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42576.0</c:v>
+                  <c:v>42576</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42576.0</c:v>
+                  <c:v>42576</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42576.0</c:v>
+                  <c:v>42576</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42595.0</c:v>
+                  <c:v>42595</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42595.0</c:v>
+                  <c:v>42595</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42595.0</c:v>
+                  <c:v>42595</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42595.0</c:v>
+                  <c:v>42595</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42595.0</c:v>
+                  <c:v>42595</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42595.0</c:v>
+                  <c:v>42595</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42596.0</c:v>
+                  <c:v>42596</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42596.0</c:v>
+                  <c:v>42596</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42596.0</c:v>
+                  <c:v>42596</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42596.0</c:v>
+                  <c:v>42596</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42596.0</c:v>
+                  <c:v>42596</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42596.0</c:v>
+                  <c:v>42596</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>42597.0</c:v>
+                  <c:v>42597</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42597.0</c:v>
+                  <c:v>42597</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>42597.0</c:v>
+                  <c:v>42597</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42597.0</c:v>
+                  <c:v>42597</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>42597.0</c:v>
+                  <c:v>42597</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>42597.0</c:v>
+                  <c:v>42597</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42598.0</c:v>
+                  <c:v>42598</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>42598.0</c:v>
+                  <c:v>42598</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>42598.0</c:v>
+                  <c:v>42598</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>42598.0</c:v>
+                  <c:v>42598</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42598.0</c:v>
+                  <c:v>42598</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42598.0</c:v>
+                  <c:v>42598</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42599.0</c:v>
+                  <c:v>42599</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>42599.0</c:v>
+                  <c:v>42599</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>42599.0</c:v>
+                  <c:v>42599</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>42599.0</c:v>
+                  <c:v>42599</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>42599.0</c:v>
+                  <c:v>42599</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42599.0</c:v>
+                  <c:v>42599</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>42600.0</c:v>
+                  <c:v>42600</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>42600.0</c:v>
+                  <c:v>42600</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>42600.0</c:v>
+                  <c:v>42600</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>42600.0</c:v>
+                  <c:v>42600</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42600.0</c:v>
+                  <c:v>42600</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42600.0</c:v>
+                  <c:v>42600</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>42601.0</c:v>
+                  <c:v>42601</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>42601.0</c:v>
+                  <c:v>42601</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>42601.0</c:v>
+                  <c:v>42601</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>42601.0</c:v>
+                  <c:v>42601</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>42601.0</c:v>
+                  <c:v>42601</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>42601.0</c:v>
+                  <c:v>42601</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42602.0</c:v>
+                  <c:v>42602</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42602.0</c:v>
+                  <c:v>42602</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42602.0</c:v>
+                  <c:v>42602</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>42602.0</c:v>
+                  <c:v>42602</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42602.0</c:v>
+                  <c:v>42602</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>42602.0</c:v>
+                  <c:v>42602</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>42603.0</c:v>
+                  <c:v>42603</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>42603.0</c:v>
+                  <c:v>42603</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>42603.0</c:v>
+                  <c:v>42603</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>42603.0</c:v>
+                  <c:v>42603</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>42603.0</c:v>
+                  <c:v>42603</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>42603.0</c:v>
+                  <c:v>42603</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>42604.0</c:v>
+                  <c:v>42604</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>42604.0</c:v>
+                  <c:v>42604</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>42604.0</c:v>
+                  <c:v>42604</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>42604.0</c:v>
+                  <c:v>42604</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>42604.0</c:v>
+                  <c:v>42604</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>42604.0</c:v>
+                  <c:v>42604</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>42605.0</c:v>
+                  <c:v>42605</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>42605.0</c:v>
+                  <c:v>42605</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>42605.0</c:v>
+                  <c:v>42605</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>42605.0</c:v>
+                  <c:v>42605</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>42605.0</c:v>
+                  <c:v>42605</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>42605.0</c:v>
+                  <c:v>42605</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>42606.0</c:v>
+                  <c:v>42606</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>42606.0</c:v>
+                  <c:v>42606</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>42606.0</c:v>
+                  <c:v>42606</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>42606.0</c:v>
+                  <c:v>42606</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>42606.0</c:v>
+                  <c:v>42606</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>42606.0</c:v>
+                  <c:v>42606</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>42607.0</c:v>
+                  <c:v>42607</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>42607.0</c:v>
+                  <c:v>42607</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>42607.0</c:v>
+                  <c:v>42607</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>42607.0</c:v>
+                  <c:v>42607</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>42607.0</c:v>
+                  <c:v>42607</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>42607.0</c:v>
+                  <c:v>42607</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>42608.0</c:v>
+                  <c:v>42608</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>42608.0</c:v>
+                  <c:v>42608</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>42608.0</c:v>
+                  <c:v>42608</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>42608.0</c:v>
+                  <c:v>42608</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>42608.0</c:v>
+                  <c:v>42608</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>42608.0</c:v>
+                  <c:v>42608</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>42609.0</c:v>
+                  <c:v>42609</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>42609.0</c:v>
+                  <c:v>42609</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>42609.0</c:v>
+                  <c:v>42609</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>42609.0</c:v>
+                  <c:v>42609</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>42609.0</c:v>
+                  <c:v>42609</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>42609.0</c:v>
+                  <c:v>42609</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>42610.0</c:v>
+                  <c:v>42610</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>42610.0</c:v>
+                  <c:v>42610</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>42610.0</c:v>
+                  <c:v>42610</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>42610.0</c:v>
+                  <c:v>42610</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>42610.0</c:v>
+                  <c:v>42610</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>42610.0</c:v>
+                  <c:v>42610</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>42611.0</c:v>
+                  <c:v>42611</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>42611.0</c:v>
+                  <c:v>42611</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>42611.0</c:v>
+                  <c:v>42611</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>42611.0</c:v>
+                  <c:v>42611</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>42611.0</c:v>
+                  <c:v>42611</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>42611.0</c:v>
+                  <c:v>42611</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>42612.0</c:v>
+                  <c:v>42612</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>42612.0</c:v>
+                  <c:v>42612</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>42612.0</c:v>
+                  <c:v>42612</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>42612.0</c:v>
+                  <c:v>42612</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>42612.0</c:v>
+                  <c:v>42612</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>42612.0</c:v>
+                  <c:v>42612</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>42613.0</c:v>
+                  <c:v>42613</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>42613.0</c:v>
+                  <c:v>42613</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>42613.0</c:v>
+                  <c:v>42613</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>42613.0</c:v>
+                  <c:v>42613</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>42613.0</c:v>
+                  <c:v>42613</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>42613.0</c:v>
+                  <c:v>42613</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>42614.0</c:v>
+                  <c:v>42614</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>42614.0</c:v>
+                  <c:v>42614</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>42614.0</c:v>
+                  <c:v>42614</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>42614.0</c:v>
+                  <c:v>42614</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>42614.0</c:v>
+                  <c:v>42614</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>42614.0</c:v>
+                  <c:v>42614</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>42614.0</c:v>
+                  <c:v>42614</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>42614.0</c:v>
+                  <c:v>42614</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>42614.0</c:v>
+                  <c:v>42614</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>42614.0</c:v>
+                  <c:v>42614</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>42614.0</c:v>
+                  <c:v>42614</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>42614.0</c:v>
+                  <c:v>42614</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>42616.0</c:v>
+                  <c:v>42616</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>42616.0</c:v>
+                  <c:v>42616</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>42616.0</c:v>
+                  <c:v>42616</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>42616.0</c:v>
+                  <c:v>42616</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>42616.0</c:v>
+                  <c:v>42616</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>42616.0</c:v>
+                  <c:v>42616</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>42617.0</c:v>
+                  <c:v>42617</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>42617.0</c:v>
+                  <c:v>42617</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>42617.0</c:v>
+                  <c:v>42617</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>42617.0</c:v>
+                  <c:v>42617</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>42617.0</c:v>
+                  <c:v>42617</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>42617.0</c:v>
+                  <c:v>42617</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>42618.0</c:v>
+                  <c:v>42618</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>42618.0</c:v>
+                  <c:v>42618</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>42618.0</c:v>
+                  <c:v>42618</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>42618.0</c:v>
+                  <c:v>42618</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>42618.0</c:v>
+                  <c:v>42618</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>42618.0</c:v>
+                  <c:v>42618</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>42619.0</c:v>
+                  <c:v>42619</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>42619.0</c:v>
+                  <c:v>42619</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>42619.0</c:v>
+                  <c:v>42619</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>42619.0</c:v>
+                  <c:v>42619</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>42619.0</c:v>
+                  <c:v>42619</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>42619.0</c:v>
+                  <c:v>42619</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>42620.0</c:v>
+                  <c:v>42620</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>42620.0</c:v>
+                  <c:v>42620</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>42620.0</c:v>
+                  <c:v>42620</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>42620.0</c:v>
+                  <c:v>42620</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>42620.0</c:v>
+                  <c:v>42620</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>42620.0</c:v>
+                  <c:v>42620</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>42621.0</c:v>
+                  <c:v>42621</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>42621.0</c:v>
+                  <c:v>42621</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>42621.0</c:v>
+                  <c:v>42621</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>42621.0</c:v>
+                  <c:v>42621</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>42621.0</c:v>
+                  <c:v>42621</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>42621.0</c:v>
+                  <c:v>42621</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>42622.0</c:v>
+                  <c:v>42622</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>42622.0</c:v>
+                  <c:v>42622</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>42622.0</c:v>
+                  <c:v>42622</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>42622.0</c:v>
+                  <c:v>42622</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>42622.0</c:v>
+                  <c:v>42622</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>42622.0</c:v>
+                  <c:v>42622</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>42623.0</c:v>
+                  <c:v>42623</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>42623.0</c:v>
+                  <c:v>42623</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>42623.0</c:v>
+                  <c:v>42623</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>42623.0</c:v>
+                  <c:v>42623</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>42623.0</c:v>
+                  <c:v>42623</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>42623.0</c:v>
+                  <c:v>42623</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>42624.0</c:v>
+                  <c:v>42624</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>42624.0</c:v>
+                  <c:v>42624</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>42624.0</c:v>
+                  <c:v>42624</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>42624.0</c:v>
+                  <c:v>42624</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>42624.0</c:v>
+                  <c:v>42624</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>42624.0</c:v>
+                  <c:v>42624</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>42625.0</c:v>
+                  <c:v>42625</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>42625.0</c:v>
+                  <c:v>42625</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>42625.0</c:v>
+                  <c:v>42625</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>42625.0</c:v>
+                  <c:v>42625</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>42625.0</c:v>
+                  <c:v>42625</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>42625.0</c:v>
+                  <c:v>42625</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>42626.0</c:v>
+                  <c:v>42626</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>42626.0</c:v>
+                  <c:v>42626</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>42626.0</c:v>
+                  <c:v>42626</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>42626.0</c:v>
+                  <c:v>42626</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>42626.0</c:v>
+                  <c:v>42626</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>42626.0</c:v>
+                  <c:v>42626</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>42627.0</c:v>
+                  <c:v>42627</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>42627.0</c:v>
+                  <c:v>42627</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>42627.0</c:v>
+                  <c:v>42627</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>42627.0</c:v>
+                  <c:v>42627</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>42627.0</c:v>
+                  <c:v>42627</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>42627.0</c:v>
+                  <c:v>42627</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>42628.0</c:v>
+                  <c:v>42628</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>42628.0</c:v>
+                  <c:v>42628</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>42628.0</c:v>
+                  <c:v>42628</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>42628.0</c:v>
+                  <c:v>42628</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>42628.0</c:v>
+                  <c:v>42628</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>42628.0</c:v>
+                  <c:v>42628</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>42629.0</c:v>
+                  <c:v>42629</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>42629.0</c:v>
+                  <c:v>42629</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>42629.0</c:v>
+                  <c:v>42629</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>42629.0</c:v>
+                  <c:v>42629</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>42629.0</c:v>
+                  <c:v>42629</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>42629.0</c:v>
+                  <c:v>42629</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>42630.0</c:v>
+                  <c:v>42630</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>42630.0</c:v>
+                  <c:v>42630</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>42630.0</c:v>
+                  <c:v>42630</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>42630.0</c:v>
+                  <c:v>42630</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>42630.0</c:v>
+                  <c:v>42630</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>42630.0</c:v>
+                  <c:v>42630</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>42631.0</c:v>
+                  <c:v>42631</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>42631.0</c:v>
+                  <c:v>42631</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>42631.0</c:v>
+                  <c:v>42631</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>42631.0</c:v>
+                  <c:v>42631</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>42631.0</c:v>
+                  <c:v>42631</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>42631.0</c:v>
+                  <c:v>42631</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>42632.0</c:v>
+                  <c:v>42632</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>42632.0</c:v>
+                  <c:v>42632</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>42632.0</c:v>
+                  <c:v>42632</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>42632.0</c:v>
+                  <c:v>42632</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>42632.0</c:v>
+                  <c:v>42632</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>42632.0</c:v>
+                  <c:v>42632</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>42633.0</c:v>
+                  <c:v>42633</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>42633.0</c:v>
+                  <c:v>42633</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>42633.0</c:v>
+                  <c:v>42633</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>42633.0</c:v>
+                  <c:v>42633</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>42633.0</c:v>
+                  <c:v>42633</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>42633.0</c:v>
+                  <c:v>42633</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>42634.0</c:v>
+                  <c:v>42634</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>42634.0</c:v>
+                  <c:v>42634</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>42634.0</c:v>
+                  <c:v>42634</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>42634.0</c:v>
+                  <c:v>42634</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>42634.0</c:v>
+                  <c:v>42634</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>42634.0</c:v>
+                  <c:v>42634</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>42635.0</c:v>
+                  <c:v>42635</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>42635.0</c:v>
+                  <c:v>42635</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>42635.0</c:v>
+                  <c:v>42635</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>42635.0</c:v>
+                  <c:v>42635</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>42635.0</c:v>
+                  <c:v>42635</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>42635.0</c:v>
+                  <c:v>42635</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>42636.0</c:v>
+                  <c:v>42636</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>42636.0</c:v>
+                  <c:v>42636</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>42636.0</c:v>
+                  <c:v>42636</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>42636.0</c:v>
+                  <c:v>42636</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>42636.0</c:v>
+                  <c:v>42636</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>42636.0</c:v>
+                  <c:v>42636</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>42637.0</c:v>
+                  <c:v>42637</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>42637.0</c:v>
+                  <c:v>42637</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>42637.0</c:v>
+                  <c:v>42637</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>42637.0</c:v>
+                  <c:v>42637</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>42637.0</c:v>
+                  <c:v>42637</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>42637.0</c:v>
+                  <c:v>42637</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>42638.0</c:v>
+                  <c:v>42638</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>42638.0</c:v>
+                  <c:v>42638</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>42638.0</c:v>
+                  <c:v>42638</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>42638.0</c:v>
+                  <c:v>42638</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>42638.0</c:v>
+                  <c:v>42638</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>42638.0</c:v>
+                  <c:v>42638</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>42639.0</c:v>
+                  <c:v>42639</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>42639.0</c:v>
+                  <c:v>42639</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>42639.0</c:v>
+                  <c:v>42639</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>42639.0</c:v>
+                  <c:v>42639</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>42639.0</c:v>
+                  <c:v>42639</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>42639.0</c:v>
+                  <c:v>42639</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>42640.0</c:v>
+                  <c:v>42640</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>42640.0</c:v>
+                  <c:v>42640</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>42640.0</c:v>
+                  <c:v>42640</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>42640.0</c:v>
+                  <c:v>42640</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>42640.0</c:v>
+                  <c:v>42640</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>42640.0</c:v>
+                  <c:v>42640</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>42641.0</c:v>
+                  <c:v>42641</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>42641.0</c:v>
+                  <c:v>42641</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>42641.0</c:v>
+                  <c:v>42641</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>42641.0</c:v>
+                  <c:v>42641</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>42641.0</c:v>
+                  <c:v>42641</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>42641.0</c:v>
+                  <c:v>42641</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>42642.0</c:v>
+                  <c:v>42642</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>42642.0</c:v>
+                  <c:v>42642</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>42642.0</c:v>
+                  <c:v>42642</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>42642.0</c:v>
+                  <c:v>42642</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>42642.0</c:v>
+                  <c:v>42642</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>42642.0</c:v>
+                  <c:v>42642</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>42643.0</c:v>
+                  <c:v>42643</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>42643.0</c:v>
+                  <c:v>42643</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>42643.0</c:v>
+                  <c:v>42643</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>42643.0</c:v>
+                  <c:v>42643</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>42643.0</c:v>
+                  <c:v>42643</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>42643.0</c:v>
+                  <c:v>42643</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>42644.0</c:v>
+                  <c:v>42644</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>42644.0</c:v>
+                  <c:v>42644</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>42644.0</c:v>
+                  <c:v>42644</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>42644.0</c:v>
+                  <c:v>42644</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>42644.0</c:v>
+                  <c:v>42644</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>42644.0</c:v>
+                  <c:v>42644</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>42645.0</c:v>
+                  <c:v>42645</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>42645.0</c:v>
+                  <c:v>42645</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>42645.0</c:v>
+                  <c:v>42645</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>42645.0</c:v>
+                  <c:v>42645</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>42645.0</c:v>
+                  <c:v>42645</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>42645.0</c:v>
+                  <c:v>42645</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>42646.0</c:v>
+                  <c:v>42646</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>42646.0</c:v>
+                  <c:v>42646</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>42646.0</c:v>
+                  <c:v>42646</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>42646.0</c:v>
+                  <c:v>42646</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>42646.0</c:v>
+                  <c:v>42646</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>42646.0</c:v>
+                  <c:v>42646</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>42647.0</c:v>
+                  <c:v>42647</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>42647.0</c:v>
+                  <c:v>42647</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>42647.0</c:v>
+                  <c:v>42647</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>42647.0</c:v>
+                  <c:v>42647</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>42647.0</c:v>
+                  <c:v>42647</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>42647.0</c:v>
+                  <c:v>42647</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>42648.0</c:v>
+                  <c:v>42648</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>42648.0</c:v>
+                  <c:v>42648</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>42648.0</c:v>
+                  <c:v>42648</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>42648.0</c:v>
+                  <c:v>42648</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>42648.0</c:v>
+                  <c:v>42648</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>42648.0</c:v>
+                  <c:v>42648</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>42649.0</c:v>
+                  <c:v>42649</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>42649.0</c:v>
+                  <c:v>42649</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>42649.0</c:v>
+                  <c:v>42649</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>42649.0</c:v>
+                  <c:v>42649</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>42649.0</c:v>
+                  <c:v>42649</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>42649.0</c:v>
+                  <c:v>42649</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>42650.0</c:v>
+                  <c:v>42650</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>42650.0</c:v>
+                  <c:v>42650</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>42650.0</c:v>
+                  <c:v>42650</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>42650.0</c:v>
+                  <c:v>42650</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>42650.0</c:v>
+                  <c:v>42650</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>42650.0</c:v>
+                  <c:v>42650</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>42651.0</c:v>
+                  <c:v>42651</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>42651.0</c:v>
+                  <c:v>42651</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>42651.0</c:v>
+                  <c:v>42651</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>42651.0</c:v>
+                  <c:v>42651</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>42651.0</c:v>
+                  <c:v>42651</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>42651.0</c:v>
+                  <c:v>42651</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>42652.0</c:v>
+                  <c:v>42652</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>42652.0</c:v>
+                  <c:v>42652</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>42652.0</c:v>
+                  <c:v>42652</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>42652.0</c:v>
+                  <c:v>42652</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>42652.0</c:v>
+                  <c:v>42652</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>42652.0</c:v>
+                  <c:v>42652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2160,1108 +2163,1102 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="366"/>
                 <c:pt idx="0">
-                  <c:v>0.000389026099583134</c:v>
+                  <c:v>3.8902609958313406E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000389026099583134</c:v>
+                  <c:v>3.8902609958313406E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000389026099583134</c:v>
+                  <c:v>3.8902609958313406E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000265050999587402</c:v>
+                  <c:v>2.6505099958740175E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000265050999587402</c:v>
+                  <c:v>2.6505099958740175E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000265050999587402</c:v>
+                  <c:v>2.6505099958740175E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.000177196707227267</c:v>
+                  <c:v>1.7719670722726732E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000177196707227267</c:v>
+                  <c:v>1.7719670722726732E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.000177196707227267</c:v>
+                  <c:v>1.7719670722726732E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.000227112803258933</c:v>
+                  <c:v>2.2711280325893313E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.000227112803258933</c:v>
+                  <c:v>2.2711280325893313E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.000227112803258933</c:v>
+                  <c:v>2.2711280325893313E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.000370901223504916</c:v>
+                  <c:v>3.7090122350491583E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.000370901223504916</c:v>
+                  <c:v>3.7090122350491583E-4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.000370901223504916</c:v>
+                  <c:v>3.7090122350491583E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.000329038215568289</c:v>
+                  <c:v>3.2903821556828916E-4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.000329038215568289</c:v>
+                  <c:v>3.2903821556828916E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.000329038215568289</c:v>
+                  <c:v>3.2903821556828916E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.000176557383383624</c:v>
+                  <c:v>1.7655738338362426E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.000176557383383624</c:v>
+                  <c:v>1.7655738338362426E-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.000176557383383624</c:v>
+                  <c:v>1.7655738338362426E-4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.15063137654215E-5</c:v>
+                  <c:v>9.150631376542151E-5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.15063137654215E-5</c:v>
+                  <c:v>9.150631376542151E-5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.15063137654215E-5</c:v>
+                  <c:v>9.150631376542151E-5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.000267104100203141</c:v>
+                  <c:v>2.6710410020314157E-4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.000267104100203141</c:v>
+                  <c:v>2.6710410020314157E-4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.000267104100203141</c:v>
+                  <c:v>2.6710410020314157E-4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.000192133637028746</c:v>
+                  <c:v>1.9213363702874631E-4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.000192133637028746</c:v>
+                  <c:v>1.9213363702874631E-4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.000192133637028746</c:v>
+                  <c:v>1.9213363702874631E-4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.000529509328771382</c:v>
+                  <c:v>5.2950932877138257E-4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.000529509328771382</c:v>
+                  <c:v>5.2950932877138257E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.000529509328771382</c:v>
+                  <c:v>5.2950932877138257E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.000337371282512322</c:v>
+                  <c:v>3.3737128251232207E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.000337371282512322</c:v>
+                  <c:v>3.3737128251232207E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.000337371282512322</c:v>
+                  <c:v>3.3737128251232207E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.000205989985261112</c:v>
+                  <c:v>2.0598998526111245E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.000205989985261112</c:v>
+                  <c:v>2.0598998526111245E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.000205989985261112</c:v>
+                  <c:v>2.0598998526111245E-4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.000326645298628136</c:v>
+                  <c:v>3.2664529862813652E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.000326645298628136</c:v>
+                  <c:v>3.2664529862813652E-4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.000326645298628136</c:v>
+                  <c:v>3.2664529862813652E-4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.000170031024026684</c:v>
+                  <c:v>1.7003102402668446E-4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.000170031024026684</c:v>
+                  <c:v>1.7003102402668446E-4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.000170031024026684</c:v>
+                  <c:v>1.7003102402668446E-4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.000244559982093051</c:v>
+                  <c:v>2.4455998209305108E-4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.000244559982093051</c:v>
+                  <c:v>2.4455998209305108E-4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.000244559982093051</c:v>
+                  <c:v>2.4455998209305108E-4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.000353260518750176</c:v>
+                  <c:v>3.5326051875017583E-4</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.000353260518750176</c:v>
+                  <c:v>3.5326051875017583E-4</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.000353260518750176</c:v>
+                  <c:v>3.5326051875017583E-4</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.000360815669409931</c:v>
+                  <c:v>3.6081566940993071E-4</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.000360815669409931</c:v>
+                  <c:v>3.6081566940993071E-4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.000360815669409931</c:v>
+                  <c:v>3.6081566940993071E-4</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.000350028276443481</c:v>
+                  <c:v>3.5002827644348145E-4</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.000350028276443481</c:v>
+                  <c:v>3.5002827644348145E-4</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.000350028276443481</c:v>
+                  <c:v>3.5002827644348145E-4</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.00031414968543686</c:v>
+                  <c:v>3.1414968543685973E-4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.00031414968543686</c:v>
+                  <c:v>3.1414968543685973E-4</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.00031414968543686</c:v>
+                  <c:v>3.1414968543685973E-4</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.00051761808572337</c:v>
+                  <c:v>5.1761808572337031E-4</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.00051761808572337</c:v>
+                  <c:v>5.1761808572337031E-4</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.00051761808572337</c:v>
+                  <c:v>5.1761808572337031E-4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.000665718864183873</c:v>
+                  <c:v>6.6571886418387294E-4</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.000665718864183873</c:v>
+                  <c:v>6.6571886418387294E-4</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.000665718864183873</c:v>
+                  <c:v>6.6571886418387294E-4</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.000654151488561183</c:v>
+                  <c:v>6.5415148856118321E-4</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.000654151488561183</c:v>
+                  <c:v>6.5415148856118321E-4</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.000654151488561183</c:v>
+                  <c:v>6.5415148856118321E-4</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.000657421362120658</c:v>
+                  <c:v>6.5742136212065816E-4</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.000657421362120658</c:v>
+                  <c:v>6.5742136212065816E-4</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.000657421362120658</c:v>
+                  <c:v>6.5742136212065816E-4</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.000765721022617072</c:v>
+                  <c:v>7.6572102261707187E-4</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.000765721022617072</c:v>
+                  <c:v>7.6572102261707187E-4</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.000765721022617072</c:v>
+                  <c:v>7.6572102261707187E-4</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.000861184147652238</c:v>
+                  <c:v>8.6118414765223861E-4</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.000861184147652238</c:v>
+                  <c:v>8.6118414765223861E-4</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.000861184147652238</c:v>
+                  <c:v>8.6118414765223861E-4</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.00209998502396047</c:v>
+                  <c:v>2.0999850239604712E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.00209998502396047</c:v>
+                  <c:v>2.0999850239604712E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.00209998502396047</c:v>
+                  <c:v>2.0999850239604712E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.00137936556711793</c:v>
+                  <c:v>1.3793655671179295E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.00137936556711793</c:v>
+                  <c:v>1.3793655671179295E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.00137936556711793</c:v>
+                  <c:v>1.3793655671179295E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.000732021231669932</c:v>
+                  <c:v>7.320212316699326E-4</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.000732021231669932</c:v>
+                  <c:v>7.320212316699326E-4</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.000732021231669932</c:v>
+                  <c:v>7.320212316699326E-4</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.00102942157536745</c:v>
+                  <c:v>1.0294215753674507E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.00102942157536745</c:v>
+                  <c:v>1.0294215753674507E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.00102942157536745</c:v>
+                  <c:v>1.0294215753674507E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.000554234487935901</c:v>
+                  <c:v>5.5423448793590069E-4</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.000554234487935901</c:v>
+                  <c:v>5.5423448793590069E-4</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.000554234487935901</c:v>
+                  <c:v>5.5423448793590069E-4</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.000952204514760524</c:v>
+                  <c:v>9.5220451476052403E-4</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.000952204514760524</c:v>
+                  <c:v>9.5220451476052403E-4</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.000952204514760524</c:v>
+                  <c:v>9.5220451476052403E-4</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.000751392275560647</c:v>
+                  <c:v>7.5139227556064725E-4</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.000751392275560647</c:v>
+                  <c:v>7.5139227556064725E-4</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.000751392275560647</c:v>
+                  <c:v>7.5139227556064725E-4</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.000633456686045974</c:v>
+                  <c:v>6.3345668604597449E-4</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.000633456686045974</c:v>
+                  <c:v>6.3345668604597449E-4</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.000633456686045974</c:v>
+                  <c:v>6.3345668604597449E-4</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.000838938110973686</c:v>
+                  <c:v>8.3893811097368598E-4</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.000838938110973686</c:v>
+                  <c:v>8.3893811097368598E-4</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.000838938110973686</c:v>
+                  <c:v>8.3893811097368598E-4</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.00061485730111599</c:v>
+                  <c:v>6.1485730111598969E-4</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.00061485730111599</c:v>
+                  <c:v>6.1485730111598969E-4</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.00061485730111599</c:v>
+                  <c:v>6.1485730111598969E-4</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.000422376673668623</c:v>
+                  <c:v>4.2237667366862297E-4</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.000422376673668623</c:v>
+                  <c:v>4.2237667366862297E-4</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.000422376673668623</c:v>
+                  <c:v>4.2237667366862297E-4</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.00107160350307822</c:v>
+                  <c:v>1.0716035030782223E-3</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.00107160350307822</c:v>
+                  <c:v>1.0716035030782223E-3</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.00107160350307822</c:v>
+                  <c:v>1.0716035030782223E-3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.000650099653284997</c:v>
+                  <c:v>6.5009965328499675E-4</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.000650099653284997</c:v>
+                  <c:v>6.5009965328499675E-4</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.000650099653284997</c:v>
+                  <c:v>6.5009965328499675E-4</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.000652714807074517</c:v>
+                  <c:v>6.5271480707451701E-4</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.000652714807074517</c:v>
+                  <c:v>6.5271480707451701E-4</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.000652714807074517</c:v>
+                  <c:v>6.5271480707451701E-4</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.0012988019734621</c:v>
+                  <c:v>1.2988019734621048E-3</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.0012988019734621</c:v>
+                  <c:v>1.2988019734621048E-3</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.0012988019734621</c:v>
+                  <c:v>1.2988019734621048E-3</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.000961303652729839</c:v>
+                  <c:v>9.6130365272983909E-4</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.000961303652729839</c:v>
+                  <c:v>9.6130365272983909E-4</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.000961303652729839</c:v>
+                  <c:v>9.6130365272983909E-4</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.00381764001213014</c:v>
+                  <c:v>3.8176400121301413E-3</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.00381764001213014</c:v>
+                  <c:v>3.8176400121301413E-3</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.00381764001213014</c:v>
+                  <c:v>3.8176400121301413E-3</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.0034523771610111</c:v>
+                  <c:v>3.4523771610110998E-3</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.0034523771610111</c:v>
+                  <c:v>3.4523771610110998E-3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.0034523771610111</c:v>
+                  <c:v>3.4523771610110998E-3</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.0033109940122813</c:v>
+                  <c:v>3.3109940122812986E-3</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.0033109940122813</c:v>
+                  <c:v>3.3109940122812986E-3</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.0033109940122813</c:v>
+                  <c:v>3.3109940122812986E-3</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.00321683660149574</c:v>
+                  <c:v>3.2168366014957428E-3</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.00321683660149574</c:v>
+                  <c:v>3.2168366014957428E-3</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.00321683660149574</c:v>
+                  <c:v>3.2168366014957428E-3</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.00507922004908323</c:v>
+                  <c:v>5.0792200490832329E-3</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.00507922004908323</c:v>
+                  <c:v>5.0792200490832329E-3</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.00507922004908323</c:v>
+                  <c:v>5.0792200490832329E-3</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.00470021925866604</c:v>
+                  <c:v>4.7002192586660385E-3</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.00470021925866604</c:v>
+                  <c:v>4.7002192586660385E-3</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.00470021925866604</c:v>
+                  <c:v>4.7002192586660385E-3</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.00712380418553948</c:v>
+                  <c:v>7.123804185539484E-3</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.00712380418553948</c:v>
+                  <c:v>7.123804185539484E-3</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.00712380418553948</c:v>
+                  <c:v>7.123804185539484E-3</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.00503574311733246</c:v>
+                  <c:v>5.0357431173324585E-3</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.00503574311733246</c:v>
+                  <c:v>5.0357431173324585E-3</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.00503574311733246</c:v>
+                  <c:v>5.0357431173324585E-3</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.00653767818585038</c:v>
+                  <c:v>6.5376781858503819E-3</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.00653767818585038</c:v>
+                  <c:v>6.5376781858503819E-3</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.00653767818585038</c:v>
+                  <c:v>6.5376781858503819E-3</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.005934689193964</c:v>
+                  <c:v>5.9346891939640045E-3</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.005934689193964</c:v>
+                  <c:v>5.9346891939640045E-3</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.005934689193964</c:v>
+                  <c:v>5.9346891939640045E-3</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.00720034167170524</c:v>
+                  <c:v>7.200341671705246E-3</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.00720034167170524</c:v>
+                  <c:v>7.200341671705246E-3</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.00720034167170524</c:v>
+                  <c:v>7.200341671705246E-3</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.00296813133172691</c:v>
+                  <c:v>2.9681313317269087E-3</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.00296813133172691</c:v>
+                  <c:v>2.9681313317269087E-3</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.00296813133172691</c:v>
+                  <c:v>2.9681313317269087E-3</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.000643563049379736</c:v>
+                  <c:v>6.4356304937973619E-4</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.000643563049379736</c:v>
+                  <c:v>6.4356304937973619E-4</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.000643563049379736</c:v>
+                  <c:v>6.4356304937973619E-4</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.000640527927316725</c:v>
+                  <c:v>6.4052792731672525E-4</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.000640527927316725</c:v>
+                  <c:v>6.4052792731672525E-4</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.000640527927316725</c:v>
+                  <c:v>6.4052792731672525E-4</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.000321256462484598</c:v>
+                  <c:v>3.2125646248459816E-4</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.000321256462484598</c:v>
+                  <c:v>3.2125646248459816E-4</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.000321256462484598</c:v>
+                  <c:v>3.2125646248459816E-4</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.000331799732521176</c:v>
+                  <c:v>3.3179973252117634E-4</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.000331799732521176</c:v>
+                  <c:v>3.3179973252117634E-4</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.000331799732521176</c:v>
+                  <c:v>3.3179973252117634E-4</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.00171609222888946</c:v>
+                  <c:v>1.7160922288894653E-3</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.00171609222888946</c:v>
+                  <c:v>1.7160922288894653E-3</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.00171609222888946</c:v>
+                  <c:v>1.7160922288894653E-3</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.00188093387987465</c:v>
+                  <c:v>1.8809338798746467E-3</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.00188093387987465</c:v>
+                  <c:v>1.8809338798746467E-3</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.00188093387987465</c:v>
+                  <c:v>1.8809338798746467E-3</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.00155678915325552</c:v>
+                  <c:v>1.5567891532555223E-3</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.00155678915325552</c:v>
+                  <c:v>1.5567891532555223E-3</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.00155678915325552</c:v>
+                  <c:v>1.5567891532555223E-3</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.00362321920692921</c:v>
+                  <c:v>3.6232192069292068E-3</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.00362321920692921</c:v>
+                  <c:v>3.6232192069292068E-3</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.00362321920692921</c:v>
+                  <c:v>3.6232192069292068E-3</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.000486809381982311</c:v>
+                  <c:v>4.8680938198231161E-4</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.000486809381982311</c:v>
+                  <c:v>4.8680938198231161E-4</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.000486809381982311</c:v>
+                  <c:v>4.8680938198231161E-4</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.000260673434240743</c:v>
+                  <c:v>2.6067343424074352E-4</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.000260673434240743</c:v>
+                  <c:v>2.6067343424074352E-4</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.000260673434240743</c:v>
+                  <c:v>2.6067343424074352E-4</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.00214556627906859</c:v>
+                  <c:v>2.1455662790685892E-3</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.00214556627906859</c:v>
+                  <c:v>2.1455662790685892E-3</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.00214556627906859</c:v>
+                  <c:v>2.1455662790685892E-3</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.00183108448982239</c:v>
+                  <c:v>1.8310844898223877E-3</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.00183108448982239</c:v>
+                  <c:v>1.8310844898223877E-3</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.00183108448982239</c:v>
+                  <c:v>1.8310844898223877E-3</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.00244043883867562</c:v>
+                  <c:v>2.4404388386756182E-3</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.00244043883867562</c:v>
+                  <c:v>2.4404388386756182E-3</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.00244043883867562</c:v>
+                  <c:v>2.4404388386756182E-3</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.00297828484326601</c:v>
+                  <c:v>2.9782848432660103E-3</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.00297828484326601</c:v>
+                  <c:v>2.9782848432660103E-3</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.00297828484326601</c:v>
+                  <c:v>2.9782848432660103E-3</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.00141586281824857</c:v>
+                  <c:v>1.41586281824857E-3</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.00141586281824857</c:v>
+                  <c:v>1.41586281824857E-3</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.00141586281824857</c:v>
+                  <c:v>1.41586281824857E-3</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.00181404908653349</c:v>
+                  <c:v>1.8140490865334868E-3</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.00181404908653349</c:v>
+                  <c:v>1.8140490865334868E-3</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.00181404908653349</c:v>
+                  <c:v>1.8140490865334868E-3</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.00217939168214798</c:v>
+                  <c:v>2.1793916821479797E-3</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.00217939168214798</c:v>
+                  <c:v>2.1793916821479797E-3</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.00217939168214798</c:v>
+                  <c:v>2.1793916821479797E-3</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.00254737096838653</c:v>
+                  <c:v>2.5473709683865309E-3</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.00254737096838653</c:v>
+                  <c:v>2.5473709683865309E-3</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.00254737096838653</c:v>
+                  <c:v>2.5473709683865309E-3</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.00240214145742357</c:v>
+                  <c:v>2.4021414574235678E-3</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.00240214145742357</c:v>
+                  <c:v>2.4021414574235678E-3</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.00240214145742357</c:v>
+                  <c:v>2.4021414574235678E-3</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.00194573740009218</c:v>
+                  <c:v>1.9457374000921845E-3</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.00194573740009218</c:v>
+                  <c:v>1.9457374000921845E-3</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.00194573740009218</c:v>
+                  <c:v>1.9457374000921845E-3</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.00372036988846958</c:v>
+                  <c:v>3.7203698884695768E-3</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.00372036988846958</c:v>
+                  <c:v>3.7203698884695768E-3</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.00372036988846958</c:v>
+                  <c:v>3.7203698884695768E-3</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.000915777462068945</c:v>
+                  <c:v>9.1577746206894517E-4</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.000915777462068945</c:v>
+                  <c:v>9.1577746206894517E-4</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.000915777462068945</c:v>
+                  <c:v>9.1577746206894517E-4</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.00187137385364622</c:v>
+                  <c:v>1.8713738536462188E-3</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.00187137385364622</c:v>
+                  <c:v>1.8713738536462188E-3</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.00187137385364622</c:v>
+                  <c:v>1.8713738536462188E-3</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.00175307469908148</c:v>
+                  <c:v>1.7530746990814805E-3</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.00175307469908148</c:v>
+                  <c:v>1.7530746990814805E-3</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.00175307469908148</c:v>
+                  <c:v>1.7530746990814805E-3</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.00161642068997025</c:v>
+                  <c:v>1.6164206899702549E-3</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.00161642068997025</c:v>
+                  <c:v>1.6164206899702549E-3</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.00161642068997025</c:v>
+                  <c:v>1.6164206899702549E-3</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.00153348792809993</c:v>
+                  <c:v>1.5334879280999303E-3</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.00153348792809993</c:v>
+                  <c:v>1.5334879280999303E-3</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.00153348792809993</c:v>
+                  <c:v>1.5334879280999303E-3</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.0031724413856864</c:v>
+                  <c:v>3.1724413856863976E-3</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.0031724413856864</c:v>
+                  <c:v>3.1724413856863976E-3</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.0031724413856864</c:v>
+                  <c:v>3.1724413856863976E-3</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.00157591374590993</c:v>
+                  <c:v>1.5759137459099293E-3</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.00157591374590993</c:v>
+                  <c:v>1.5759137459099293E-3</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.00157591374590993</c:v>
+                  <c:v>1.5759137459099293E-3</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.00266103236936033</c:v>
+                  <c:v>2.6610323693603277E-3</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.00266103236936033</c:v>
+                  <c:v>2.6610323693603277E-3</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.00266103236936033</c:v>
+                  <c:v>2.6610323693603277E-3</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.00382306310348213</c:v>
+                  <c:v>3.8230631034821272E-3</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.00382306310348213</c:v>
+                  <c:v>3.8230631034821272E-3</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.00382306310348213</c:v>
+                  <c:v>3.8230631034821272E-3</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.0035401142667979</c:v>
+                  <c:v>3.5401142667979002E-3</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.0035401142667979</c:v>
+                  <c:v>3.5401142667979002E-3</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.0035401142667979</c:v>
+                  <c:v>3.5401142667979002E-3</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0.00342384376563132</c:v>
+                  <c:v>3.4238437656313181E-3</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>0.00342384376563132</c:v>
+                  <c:v>3.4238437656313181E-3</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>0.00342384376563132</c:v>
+                  <c:v>3.4238437656313181E-3</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>0.00571493105962872</c:v>
+                  <c:v>5.7149310596287251E-3</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>0.00571493105962872</c:v>
+                  <c:v>5.7149310596287251E-3</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>0.00571493105962872</c:v>
+                  <c:v>5.7149310596287251E-3</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>0.00602544425055384</c:v>
+                  <c:v>6.0254442505538464E-3</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>0.00602544425055384</c:v>
+                  <c:v>6.0254442505538464E-3</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>0.00602544425055384</c:v>
+                  <c:v>6.0254442505538464E-3</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>0.00303182587958872</c:v>
+                  <c:v>3.0318258795887232E-3</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>0.00303182587958872</c:v>
+                  <c:v>3.0318258795887232E-3</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>0.00303182587958872</c:v>
+                  <c:v>3.0318258795887232E-3</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>0.00426478963345289</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>0.0</c:v>
+                  <c:v>4.2647896334528923E-3</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>0.00551969138905406</c:v>
+                  <c:v>5.51969138905406E-3</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>0.00551969138905406</c:v>
+                  <c:v>5.51969138905406E-3</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>0.00551969138905406</c:v>
+                  <c:v>5.51969138905406E-3</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>0.00573538104072213</c:v>
+                  <c:v>5.7353810407221317E-3</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>0.00573538104072213</c:v>
+                  <c:v>5.7353810407221317E-3</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>0.00573538104072213</c:v>
+                  <c:v>5.7353810407221317E-3</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>0.00324427452869713</c:v>
+                  <c:v>3.2442745286971331E-3</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>0.00324427452869713</c:v>
+                  <c:v>3.2442745286971331E-3</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>0.00324427452869713</c:v>
+                  <c:v>3.2442745286971331E-3</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>0.0024097787681967</c:v>
+                  <c:v>2.409778768196702E-3</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>0.0024097787681967</c:v>
+                  <c:v>2.409778768196702E-3</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>0.0024097787681967</c:v>
+                  <c:v>2.409778768196702E-3</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>0.00191172154154628</c:v>
+                  <c:v>1.9117215415462852E-3</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>0.00191172154154628</c:v>
+                  <c:v>1.9117215415462852E-3</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>0.00191172154154628</c:v>
+                  <c:v>1.9117215415462852E-3</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>0.00232047936879098</c:v>
+                  <c:v>2.3204793687909842E-3</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>0.00232047936879098</c:v>
+                  <c:v>2.3204793687909842E-3</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>0.00232047936879098</c:v>
+                  <c:v>2.3204793687909842E-3</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>0.00464553665369749</c:v>
+                  <c:v>4.6455366536974907E-3</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>0.00464553665369749</c:v>
+                  <c:v>4.6455366536974907E-3</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>0.00464553665369749</c:v>
+                  <c:v>4.6455366536974907E-3</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>0.00321636721491814</c:v>
+                  <c:v>3.2163672149181366E-3</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>0.00321636721491814</c:v>
+                  <c:v>3.2163672149181366E-3</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>0.00321636721491814</c:v>
+                  <c:v>3.2163672149181366E-3</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>0.00133264751639217</c:v>
+                  <c:v>1.3326475163921714E-3</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>0.00133264751639217</c:v>
+                  <c:v>1.3326475163921714E-3</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>0.00133264751639217</c:v>
+                  <c:v>1.3326475163921714E-3</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>0.00202474207617342</c:v>
+                  <c:v>2.0247420761734247E-3</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>0.00202474207617342</c:v>
+                  <c:v>2.0247420761734247E-3</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>0.00202474207617342</c:v>
+                  <c:v>2.0247420761734247E-3</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>0.00546479457989335</c:v>
+                  <c:v>5.4647945798933506E-3</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>0.00546479457989335</c:v>
+                  <c:v>5.4647945798933506E-3</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>0.00546479457989335</c:v>
+                  <c:v>5.4647945798933506E-3</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>0.00543298199772835</c:v>
+                  <c:v>5.4329819977283478E-3</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>0.00543298199772835</c:v>
+                  <c:v>5.4329819977283478E-3</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>0.00543298199772835</c:v>
+                  <c:v>5.4329819977283478E-3</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>0.00309112039394677</c:v>
+                  <c:v>3.0911203939467669E-3</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>0.00309112039394677</c:v>
+                  <c:v>3.0911203939467669E-3</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>0.00309112039394677</c:v>
+                  <c:v>3.0911203939467669E-3</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>0.00139671715442091</c:v>
+                  <c:v>1.3967171544209123E-3</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>0.00139671715442091</c:v>
+                  <c:v>1.3967171544209123E-3</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>0.00139671715442091</c:v>
+                  <c:v>1.3967171544209123E-3</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>0.00133980915416032</c:v>
+                  <c:v>1.3398091541603208E-3</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>0.00133980915416032</c:v>
+                  <c:v>1.3398091541603208E-3</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>0.00133980915416032</c:v>
+                  <c:v>1.3398091541603208E-3</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>0.00117472175043076</c:v>
+                  <c:v>1.1747217504307628E-3</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>0.00117472175043076</c:v>
+                  <c:v>1.1747217504307628E-3</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>0.00117472175043076</c:v>
+                  <c:v>1.1747217504307628E-3</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>0.00105408427771181</c:v>
+                  <c:v>1.0540842777118087E-3</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>0.00105408427771181</c:v>
+                  <c:v>1.0540842777118087E-3</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>0.00105408427771181</c:v>
+                  <c:v>1.0540842777118087E-3</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>0.00158223940525204</c:v>
+                  <c:v>1.5822394052520394E-3</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>0.00158223940525204</c:v>
+                  <c:v>1.5822394052520394E-3</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>0.00158223940525204</c:v>
+                  <c:v>1.5822394052520394E-3</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>0.00100317085161805</c:v>
+                  <c:v>1.0031708516180515E-3</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>0.00100317085161805</c:v>
+                  <c:v>1.0031708516180515E-3</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>0.00100317085161805</c:v>
+                  <c:v>1.0031708516180515E-3</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>0.00103335885796696</c:v>
+                  <c:v>1.0333588579669595E-3</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>0.00103335885796696</c:v>
+                  <c:v>1.0333588579669595E-3</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>0.00103335885796696</c:v>
+                  <c:v>1.0333588579669595E-3</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>0.00206173653714359</c:v>
+                  <c:v>2.0617365371435881E-3</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>0.00206173653714359</c:v>
+                  <c:v>2.0617365371435881E-3</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>0.00206173653714359</c:v>
+                  <c:v>2.0617365371435881E-3</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>0.00280571170151234</c:v>
+                  <c:v>2.8057117015123367E-3</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>0.00280571170151234</c:v>
+                  <c:v>2.8057117015123367E-3</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>0.00280571170151234</c:v>
+                  <c:v>2.8057117015123367E-3</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>0.00309372576884925</c:v>
+                  <c:v>3.0937257688492537E-3</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>0.00309372576884925</c:v>
+                  <c:v>3.0937257688492537E-3</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>0.00309372576884925</c:v>
+                  <c:v>3.0937257688492537E-3</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>0.00336713343858719</c:v>
+                  <c:v>3.3671334385871887E-3</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>0.00336713343858719</c:v>
+                  <c:v>3.3671334385871887E-3</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>0.00336713343858719</c:v>
+                  <c:v>3.3671334385871887E-3</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>0.00596424005925655</c:v>
+                  <c:v>5.9642400592565536E-3</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>0.00596424005925655</c:v>
+                  <c:v>5.9642400592565536E-3</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>0.00596424005925655</c:v>
+                  <c:v>5.9642400592565536E-3</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>0.00453731650486588</c:v>
+                  <c:v>4.5373165048658848E-3</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>0.00453731650486588</c:v>
+                  <c:v>4.5373165048658848E-3</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>0.00453731650486588</c:v>
+                  <c:v>4.5373165048658848E-3</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>0.00347579806111753</c:v>
+                  <c:v>3.4757980611175299E-3</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>0.00347579806111753</c:v>
+                  <c:v>3.4757980611175299E-3</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>0.00347579806111753</c:v>
+                  <c:v>3.4757980611175299E-3</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>4.69064398203045E-5</c:v>
+                  <c:v>4.6906439820304513E-5</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>4.69064398203045E-5</c:v>
+                  <c:v>4.6906439820304513E-5</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>4.69064398203045E-5</c:v>
+                  <c:v>4.6906439820304513E-5</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>0.00370071572251618</c:v>
+                  <c:v>3.7007157225161791E-3</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>0.00370071572251618</c:v>
+                  <c:v>3.7007157225161791E-3</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>0.00370071572251618</c:v>
+                  <c:v>3.7007157225161791E-3</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>0.00271193799562752</c:v>
+                  <c:v>2.7119379956275225E-3</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>0.00271193799562752</c:v>
+                  <c:v>2.7119379956275225E-3</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>0.00271193799562752</c:v>
+                  <c:v>2.7119379956275225E-3</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>0.0146402632817626</c:v>
+                  <c:v>1.46402632817626E-2</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>0.0146402632817626</c:v>
+                  <c:v>1.46402632817626E-2</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>0.0146402632817626</c:v>
+                  <c:v>1.46402632817626E-2</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>0.0127270137891173</c:v>
+                  <c:v>1.2727013789117336E-2</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>0.0127270137891173</c:v>
+                  <c:v>1.2727013789117336E-2</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>0.0127270137891173</c:v>
+                  <c:v>1.2727013789117336E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7841-45FD-9175-AD4A6781FC5C}"/>
             </c:ext>
@@ -3299,7 +3296,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3448,9 +3445,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3492,7 +3489,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3562,241 +3558,241 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="79"/>
                 <c:pt idx="0">
-                  <c:v>42574.0</c:v>
+                  <c:v>42574</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42575.0</c:v>
+                  <c:v>42575</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42576.0</c:v>
+                  <c:v>42576</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42577.0</c:v>
+                  <c:v>42577</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42578.0</c:v>
+                  <c:v>42578</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42579.0</c:v>
+                  <c:v>42579</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42580.0</c:v>
+                  <c:v>42580</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42581.0</c:v>
+                  <c:v>42581</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42582.0</c:v>
+                  <c:v>42582</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42583.0</c:v>
+                  <c:v>42583</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42584.0</c:v>
+                  <c:v>42584</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42585.0</c:v>
+                  <c:v>42585</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42586.0</c:v>
+                  <c:v>42586</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42587.0</c:v>
+                  <c:v>42587</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42588.0</c:v>
+                  <c:v>42588</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42589.0</c:v>
+                  <c:v>42589</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42590.0</c:v>
+                  <c:v>42590</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42591.0</c:v>
+                  <c:v>42591</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42592.0</c:v>
+                  <c:v>42592</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42593.0</c:v>
+                  <c:v>42593</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42594.0</c:v>
+                  <c:v>42594</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42595.0</c:v>
+                  <c:v>42595</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42596.0</c:v>
+                  <c:v>42596</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42597.0</c:v>
+                  <c:v>42597</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42598.0</c:v>
+                  <c:v>42598</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42599.0</c:v>
+                  <c:v>42599</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42600.0</c:v>
+                  <c:v>42600</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42601.0</c:v>
+                  <c:v>42601</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42602.0</c:v>
+                  <c:v>42602</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42603.0</c:v>
+                  <c:v>42603</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>42604.0</c:v>
+                  <c:v>42604</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42605.0</c:v>
+                  <c:v>42605</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>42606.0</c:v>
+                  <c:v>42606</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42607.0</c:v>
+                  <c:v>42607</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>42608.0</c:v>
+                  <c:v>42608</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>42609.0</c:v>
+                  <c:v>42609</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42610.0</c:v>
+                  <c:v>42610</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>42611.0</c:v>
+                  <c:v>42611</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>42612.0</c:v>
+                  <c:v>42612</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>42613.0</c:v>
+                  <c:v>42613</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42614.0</c:v>
+                  <c:v>42614</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42615.0</c:v>
+                  <c:v>42615</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42616.0</c:v>
+                  <c:v>42616</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>42617.0</c:v>
+                  <c:v>42617</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>42618.0</c:v>
+                  <c:v>42618</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>42619.0</c:v>
+                  <c:v>42619</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>42620.0</c:v>
+                  <c:v>42620</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42621.0</c:v>
+                  <c:v>42621</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>42622.0</c:v>
+                  <c:v>42622</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>42623.0</c:v>
+                  <c:v>42623</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>42624.0</c:v>
+                  <c:v>42624</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>42625.0</c:v>
+                  <c:v>42625</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42626.0</c:v>
+                  <c:v>42626</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42627.0</c:v>
+                  <c:v>42627</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>42628.0</c:v>
+                  <c:v>42628</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>42629.0</c:v>
+                  <c:v>42629</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>42630.0</c:v>
+                  <c:v>42630</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>42631.0</c:v>
+                  <c:v>42631</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>42632.0</c:v>
+                  <c:v>42632</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>42633.0</c:v>
+                  <c:v>42633</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42634.0</c:v>
+                  <c:v>42634</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42635.0</c:v>
+                  <c:v>42635</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42636.0</c:v>
+                  <c:v>42636</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>42637.0</c:v>
+                  <c:v>42637</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42638.0</c:v>
+                  <c:v>42638</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>42639.0</c:v>
+                  <c:v>42639</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>42640.0</c:v>
+                  <c:v>42640</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>42641.0</c:v>
+                  <c:v>42641</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>42642.0</c:v>
+                  <c:v>42642</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>42643.0</c:v>
+                  <c:v>42643</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>42644.0</c:v>
+                  <c:v>42644</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>42645.0</c:v>
+                  <c:v>42645</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>42646.0</c:v>
+                  <c:v>42646</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>42647.0</c:v>
+                  <c:v>42647</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>42648.0</c:v>
+                  <c:v>42648</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>42649.0</c:v>
+                  <c:v>42649</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>42650.0</c:v>
+                  <c:v>42650</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>42651.0</c:v>
+                  <c:v>42651</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>42652.0</c:v>
+                  <c:v>42652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3808,247 +3804,247 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="79"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>88.0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C1B1-4A8A-B321-E34A20CA544F}"/>
             </c:ext>
@@ -4086,7 +4082,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5363,7 +5359,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5395,7 +5397,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8050,17 +8058,13 @@
           <cell r="C270">
             <v>42636</v>
           </cell>
-          <cell r="L270" t="str">
-            <v/>
-          </cell>
+          <cell r="L270"/>
         </row>
         <row r="271">
           <cell r="C271">
             <v>42636</v>
           </cell>
-          <cell r="L271" t="str">
-            <v/>
-          </cell>
+          <cell r="L271"/>
         </row>
         <row r="272">
           <cell r="C272">
@@ -9099,18 +9103,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F131" workbookViewId="0">
-      <selection activeCell="N158" sqref="N158"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U181" sqref="U181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
@@ -9121,7 +9126,7 @@
     <col min="16" max="16" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9184,7 +9189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -9236,7 +9241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -9288,7 +9293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -9342,7 +9347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -9396,7 +9401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -9450,7 +9455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -9504,7 +9509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -9558,7 +9563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -9612,7 +9617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -9666,7 +9671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -9720,7 +9725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -9774,7 +9779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -9828,7 +9833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -9882,7 +9887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -9936,7 +9941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -9988,7 +9993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -10042,7 +10047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -10094,7 +10099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -10146,7 +10151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -10198,7 +10203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -10250,7 +10255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -10302,7 +10307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -10354,7 +10359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -10408,7 +10413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -10462,7 +10467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -10516,7 +10521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -10570,7 +10575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -10622,7 +10627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -10674,7 +10679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -10726,7 +10731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -10778,7 +10783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -10832,7 +10837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -10884,7 +10889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -10938,7 +10943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -10990,7 +10995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -11042,7 +11047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -11094,7 +11099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -11146,7 +11151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -11198,7 +11203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -11250,7 +11255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -11302,7 +11307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -11354,7 +11359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -11406,7 +11411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -11458,7 +11463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
         <v>72</v>
       </c>
@@ -11510,7 +11515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -11562,7 +11567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
         <v>74</v>
       </c>
@@ -11614,7 +11619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
         <v>76</v>
       </c>
@@ -11666,7 +11671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -11718,7 +11723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
         <v>78</v>
       </c>
@@ -11770,7 +11775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
         <v>80</v>
       </c>
@@ -11822,7 +11827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
         <v>81</v>
       </c>
@@ -11874,7 +11879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -11926,7 +11931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -11978,7 +11983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22">
       <c r="A55" t="s">
         <v>85</v>
       </c>
@@ -12030,7 +12035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -12082,7 +12087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22">
       <c r="A57" t="s">
         <v>88</v>
       </c>
@@ -12134,7 +12139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22">
       <c r="A58" t="s">
         <v>89</v>
       </c>
@@ -12186,7 +12191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22">
       <c r="A59" t="s">
         <v>90</v>
       </c>
@@ -12238,7 +12243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22">
       <c r="A60" t="s">
         <v>92</v>
       </c>
@@ -12290,7 +12295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22">
       <c r="A61" t="s">
         <v>93</v>
       </c>
@@ -12342,7 +12347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22">
       <c r="A62" t="s">
         <v>94</v>
       </c>
@@ -12394,7 +12399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -12448,7 +12453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22">
       <c r="A64" t="s">
         <v>97</v>
       </c>
@@ -12502,7 +12507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22">
       <c r="A65" t="s">
         <v>98</v>
       </c>
@@ -12558,7 +12563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22">
       <c r="A66" t="s">
         <v>100</v>
       </c>
@@ -12610,7 +12615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22">
       <c r="A67" t="s">
         <v>101</v>
       </c>
@@ -12662,7 +12667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22">
       <c r="A68" t="s">
         <v>102</v>
       </c>
@@ -12720,7 +12725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22">
       <c r="A69" t="s">
         <v>104</v>
       </c>
@@ -12776,7 +12781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22">
       <c r="A70" t="s">
         <v>105</v>
       </c>
@@ -12832,7 +12837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22">
       <c r="A71" t="s">
         <v>106</v>
       </c>
@@ -12888,7 +12893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22">
       <c r="A72" t="s">
         <v>108</v>
       </c>
@@ -12942,7 +12947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22">
       <c r="A73" t="s">
         <v>109</v>
       </c>
@@ -13000,7 +13005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22">
       <c r="A74" t="s">
         <v>110</v>
       </c>
@@ -13058,7 +13063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22">
       <c r="A75" t="s">
         <v>112</v>
       </c>
@@ -13114,7 +13119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22">
       <c r="A76" t="s">
         <v>113</v>
       </c>
@@ -13168,7 +13173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22">
       <c r="A77" t="s">
         <v>114</v>
       </c>
@@ -13228,7 +13233,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22">
       <c r="A78" t="s">
         <v>116</v>
       </c>
@@ -13286,7 +13291,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22">
       <c r="A79" t="s">
         <v>117</v>
       </c>
@@ -13344,7 +13349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -13400,7 +13405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -13458,7 +13463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -13514,7 +13519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:22">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -13574,7 +13579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:22">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -13634,7 +13639,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:22">
       <c r="A85" t="s">
         <v>21</v>
       </c>
@@ -13694,7 +13699,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22">
       <c r="A86" t="s">
         <v>22</v>
       </c>
@@ -13754,7 +13759,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:22">
       <c r="A87" t="s">
         <v>24</v>
       </c>
@@ -13814,7 +13819,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:22">
       <c r="A88" t="s">
         <v>25</v>
       </c>
@@ -13874,7 +13879,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:22">
       <c r="A89" t="s">
         <v>121</v>
       </c>
@@ -13934,7 +13939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22">
       <c r="A90" t="s">
         <v>123</v>
       </c>
@@ -13994,7 +13999,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22">
       <c r="A91" t="s">
         <v>124</v>
       </c>
@@ -14054,7 +14059,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:22">
       <c r="A92" t="s">
         <v>26</v>
       </c>
@@ -14114,7 +14119,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:22">
       <c r="A93" t="s">
         <v>28</v>
       </c>
@@ -14174,7 +14179,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:22">
       <c r="A94" t="s">
         <v>29</v>
       </c>
@@ -14234,7 +14239,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:22">
       <c r="A95" t="s">
         <v>30</v>
       </c>
@@ -14292,7 +14297,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:22">
       <c r="A96" t="s">
         <v>32</v>
       </c>
@@ -14346,7 +14351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:22">
       <c r="A97" t="s">
         <v>33</v>
       </c>
@@ -14400,7 +14405,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:22">
       <c r="A98" t="s">
         <v>34</v>
       </c>
@@ -14454,7 +14459,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:22">
       <c r="A99" t="s">
         <v>36</v>
       </c>
@@ -14510,7 +14515,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:22">
       <c r="A100" t="s">
         <v>37</v>
       </c>
@@ -14566,7 +14571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:22">
       <c r="A101" t="s">
         <v>38</v>
       </c>
@@ -14620,7 +14625,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:22">
       <c r="A102" t="s">
         <v>40</v>
       </c>
@@ -14676,7 +14681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:22">
       <c r="A103" t="s">
         <v>41</v>
       </c>
@@ -14730,7 +14735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:22">
       <c r="A104" t="s">
         <v>42</v>
       </c>
@@ -14786,7 +14791,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:22">
       <c r="A105" t="s">
         <v>44</v>
       </c>
@@ -14842,7 +14847,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:22">
       <c r="A106" t="s">
         <v>45</v>
       </c>
@@ -14902,7 +14907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:22">
       <c r="A107" t="s">
         <v>46</v>
       </c>
@@ -14960,7 +14965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:22">
       <c r="A108" t="s">
         <v>48</v>
       </c>
@@ -15016,7 +15021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:22">
       <c r="A109" t="s">
         <v>49</v>
       </c>
@@ -15072,7 +15077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:22">
       <c r="A110" t="s">
         <v>50</v>
       </c>
@@ -15126,7 +15131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:22">
       <c r="A111" t="s">
         <v>52</v>
       </c>
@@ -15182,7 +15187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:22">
       <c r="A112" t="s">
         <v>53</v>
       </c>
@@ -15236,7 +15241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:22">
       <c r="A113" t="s">
         <v>54</v>
       </c>
@@ -15292,7 +15297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:22">
       <c r="A114" t="s">
         <v>56</v>
       </c>
@@ -15344,7 +15349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:22">
       <c r="A115" t="s">
         <v>57</v>
       </c>
@@ -15398,7 +15403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:22">
       <c r="A116" t="s">
         <v>58</v>
       </c>
@@ -15450,7 +15455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:22">
       <c r="A117" t="s">
         <v>60</v>
       </c>
@@ -15502,7 +15507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:22">
       <c r="A118" t="s">
         <v>61</v>
       </c>
@@ -15556,7 +15561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:22">
       <c r="A119" t="s">
         <v>62</v>
       </c>
@@ -15610,7 +15615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:22">
       <c r="A120" t="s">
         <v>64</v>
       </c>
@@ -15662,7 +15667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:22">
       <c r="A121" t="s">
         <v>65</v>
       </c>
@@ -15714,7 +15719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:22">
       <c r="A122" t="s">
         <v>66</v>
       </c>
@@ -15766,7 +15771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:22">
       <c r="A123" t="s">
         <v>68</v>
       </c>
@@ -15818,7 +15823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:22">
       <c r="A124" t="s">
         <v>69</v>
       </c>
@@ -15872,7 +15877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:22">
       <c r="A125" t="s">
         <v>70</v>
       </c>
@@ -15926,7 +15931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:22">
       <c r="A126" t="s">
         <v>72</v>
       </c>
@@ -15982,7 +15987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:22">
       <c r="A127" t="s">
         <v>73</v>
       </c>
@@ -16038,7 +16043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:22">
       <c r="A128" t="s">
         <v>74</v>
       </c>
@@ -16092,7 +16097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:22">
       <c r="A129" t="s">
         <v>76</v>
       </c>
@@ -16144,7 +16149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:22">
       <c r="A130" t="s">
         <v>77</v>
       </c>
@@ -16198,7 +16203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:22">
       <c r="A131" t="s">
         <v>78</v>
       </c>
@@ -16250,7 +16255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:22">
       <c r="A132" t="s">
         <v>80</v>
       </c>
@@ -16304,7 +16309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:22">
       <c r="A133" t="s">
         <v>81</v>
       </c>
@@ -16355,7 +16360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:22">
       <c r="A134" t="s">
         <v>82</v>
       </c>
@@ -16396,7 +16401,7 @@
         <v>4.7488251584582031E-4</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:22">
       <c r="A135" t="s">
         <v>84</v>
       </c>
@@ -16437,7 +16442,7 @@
         <v>4.7488251584582031E-4</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:22">
       <c r="A136" t="s">
         <v>85</v>
       </c>
@@ -16478,7 +16483,7 @@
         <v>4.7488251584582031E-4</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:22">
       <c r="A137" t="s">
         <v>86</v>
       </c>
@@ -16519,7 +16524,7 @@
         <v>2.1469834609888494E-4</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:22">
       <c r="A138" t="s">
         <v>88</v>
       </c>
@@ -16560,7 +16565,7 @@
         <v>2.1469834609888494E-4</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:22">
       <c r="A139" t="s">
         <v>89</v>
       </c>
@@ -16601,7 +16606,7 @@
         <v>2.1469834609888494E-4</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:22">
       <c r="A140" t="s">
         <v>90</v>
       </c>
@@ -16642,7 +16647,7 @@
         <v>4.4180414988659322E-4</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:22">
       <c r="A141" t="s">
         <v>92</v>
       </c>
@@ -16683,7 +16688,7 @@
         <v>4.4180414988659322E-4</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:22">
       <c r="A142" t="s">
         <v>93</v>
       </c>
@@ -16724,7 +16729,7 @@
         <v>4.4180414988659322E-4</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:22">
       <c r="A143" t="s">
         <v>94</v>
       </c>
@@ -16765,7 +16770,7 @@
         <v>3.9904503501020372E-4</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:22">
       <c r="A144" t="s">
         <v>96</v>
       </c>
@@ -16806,7 +16811,7 @@
         <v>3.9904503501020372E-4</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13">
       <c r="A145" t="s">
         <v>97</v>
       </c>
@@ -16847,7 +16852,7 @@
         <v>3.9904503501020372E-4</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13">
       <c r="A146" t="s">
         <v>98</v>
       </c>
@@ -16888,7 +16893,7 @@
         <v>6.4315058989450336E-4</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13">
       <c r="A147" t="s">
         <v>100</v>
       </c>
@@ -16929,7 +16934,7 @@
         <v>6.4315058989450336E-4</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13">
       <c r="A148" t="s">
         <v>101</v>
       </c>
@@ -16970,7 +16975,7 @@
         <v>6.4315058989450336E-4</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13">
       <c r="A149" t="s">
         <v>102</v>
       </c>
@@ -17011,7 +17016,7 @@
         <v>2.7652550488710403E-4</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13">
       <c r="A150" t="s">
         <v>104</v>
       </c>
@@ -17052,7 +17057,7 @@
         <v>2.7652550488710403E-4</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13">
       <c r="A151" t="s">
         <v>105</v>
       </c>
@@ -17093,7 +17098,7 @@
         <v>2.7652550488710403E-4</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13">
       <c r="A152" t="s">
         <v>106</v>
       </c>
@@ -17134,7 +17139,7 @@
         <v>9.6142335678450763E-5</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13">
       <c r="A153" t="s">
         <v>108</v>
       </c>
@@ -17175,7 +17180,7 @@
         <v>9.6142335678450763E-5</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13">
       <c r="A154" t="s">
         <v>109</v>
       </c>
@@ -17216,7 +17221,7 @@
         <v>9.6142335678450763E-5</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13">
       <c r="A155" t="s">
         <v>110</v>
       </c>
@@ -17257,7 +17262,7 @@
         <v>5.5499788140878081E-4</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13">
       <c r="A156" t="s">
         <v>112</v>
       </c>
@@ -17298,7 +17303,7 @@
         <v>5.5499788140878081E-4</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13">
       <c r="A157" t="s">
         <v>113</v>
       </c>
@@ -17339,7 +17344,7 @@
         <v>5.5499788140878081E-4</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13">
       <c r="A158" t="s">
         <v>114</v>
       </c>
@@ -17380,7 +17385,7 @@
         <v>3.8649377529509366E-4</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13">
       <c r="A159" t="s">
         <v>116</v>
       </c>
@@ -17421,7 +17426,7 @@
         <v>3.8649377529509366E-4</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13">
       <c r="A160" t="s">
         <v>117</v>
       </c>
@@ -17462,7 +17467,7 @@
         <v>3.8649377529509366E-4</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -17503,7 +17508,7 @@
         <v>5.2755762590095401E-4</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13">
       <c r="A162" t="s">
         <v>16</v>
       </c>
@@ -17544,7 +17549,7 @@
         <v>5.2755762590095401E-4</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13">
       <c r="A163" t="s">
         <v>17</v>
       </c>
@@ -17585,7 +17590,7 @@
         <v>5.2755762590095401E-4</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13">
       <c r="A164" t="s">
         <v>18</v>
       </c>
@@ -17626,7 +17631,7 @@
         <v>8.2153055700473487E-5</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13">
       <c r="A165" t="s">
         <v>20</v>
       </c>
@@ -17667,7 +17672,7 @@
         <v>8.2153055700473487E-5</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -17708,7 +17713,7 @@
         <v>8.2153055700473487E-5</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13">
       <c r="A167" t="s">
         <v>22</v>
       </c>
@@ -17749,7 +17754,7 @@
         <v>5.7957895478466526E-5</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13">
       <c r="A168" t="s">
         <v>24</v>
       </c>
@@ -17790,7 +17795,7 @@
         <v>5.7957895478466526E-5</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13">
       <c r="A169" t="s">
         <v>25</v>
       </c>
@@ -17831,7 +17836,7 @@
         <v>5.7957895478466526E-5</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13">
       <c r="A170" t="s">
         <v>121</v>
       </c>
@@ -17872,7 +17877,7 @@
         <v>7.1087379183154553E-5</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13">
       <c r="A171" t="s">
         <v>123</v>
       </c>
@@ -17913,7 +17918,7 @@
         <v>7.1087379183154553E-5</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13">
       <c r="A172" t="s">
         <v>124</v>
       </c>
@@ -17954,7 +17959,7 @@
         <v>7.1087379183154553E-5</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13">
       <c r="A173" t="s">
         <v>26</v>
       </c>
@@ -17995,7 +18000,7 @@
         <v>1.2583172065205872E-4</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13">
       <c r="A174" t="s">
         <v>28</v>
       </c>
@@ -18036,7 +18041,7 @@
         <v>1.2583172065205872E-4</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13">
       <c r="A175" t="s">
         <v>29</v>
       </c>
@@ -18077,7 +18082,7 @@
         <v>1.2583172065205872E-4</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13">
       <c r="A176" t="s">
         <v>30</v>
       </c>
@@ -18118,7 +18123,7 @@
         <v>2.5033895508386195E-4</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13">
       <c r="A177" t="s">
         <v>32</v>
       </c>
@@ -18159,7 +18164,7 @@
         <v>2.5033895508386195E-4</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13">
       <c r="A178" t="s">
         <v>33</v>
       </c>
@@ -18200,7 +18205,7 @@
         <v>2.5033895508386195E-4</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13">
       <c r="A179" t="s">
         <v>34</v>
       </c>
@@ -18241,7 +18246,7 @@
         <v>1.1758678738260642E-4</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13">
       <c r="A180" t="s">
         <v>36</v>
       </c>
@@ -18282,7 +18287,7 @@
         <v>1.1758678738260642E-4</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13">
       <c r="A181" t="s">
         <v>37</v>
       </c>
@@ -18323,7 +18328,7 @@
         <v>1.1758678738260642E-4</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13">
       <c r="A182" t="s">
         <v>38</v>
       </c>
@@ -18364,7 +18369,7 @@
         <v>2.2577446361538023E-4</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13">
       <c r="A183" t="s">
         <v>40</v>
       </c>
@@ -18405,7 +18410,7 @@
         <v>2.2577446361538023E-4</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13">
       <c r="A184" t="s">
         <v>41</v>
       </c>
@@ -18446,7 +18451,7 @@
         <v>2.2577446361538023E-4</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13">
       <c r="A185" t="s">
         <v>42</v>
       </c>
@@ -18487,7 +18492,7 @@
         <v>5.8868841733783484E-4</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13">
       <c r="A186" t="s">
         <v>44</v>
       </c>
@@ -18528,7 +18533,7 @@
         <v>5.8868841733783484E-4</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13">
       <c r="A187" t="s">
         <v>45</v>
       </c>
@@ -18569,7 +18574,7 @@
         <v>5.8868841733783484E-4</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13">
       <c r="A188" t="s">
         <v>46</v>
       </c>
@@ -18610,7 +18615,7 @@
         <v>2.098922232107725E-5</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13">
       <c r="A189" t="s">
         <v>48</v>
       </c>
@@ -18651,7 +18656,7 @@
         <v>2.098922232107725E-5</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13">
       <c r="A190" t="s">
         <v>49</v>
       </c>
@@ -18692,7 +18697,7 @@
         <v>2.098922232107725E-5</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13">
       <c r="A191" t="s">
         <v>50</v>
       </c>
@@ -18733,7 +18738,7 @@
         <v>9.2124231741763651E-5</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13">
       <c r="A192" t="s">
         <v>52</v>
       </c>
@@ -18774,7 +18779,7 @@
         <v>9.2124231741763651E-5</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13">
       <c r="A193" t="s">
         <v>53</v>
       </c>
@@ -18815,7 +18820,7 @@
         <v>9.2124231741763651E-5</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13">
       <c r="A194" t="s">
         <v>54</v>
       </c>
@@ -18856,7 +18861,7 @@
         <v>2.2913032444193959E-4</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13">
       <c r="A195" t="s">
         <v>56</v>
       </c>
@@ -18897,7 +18902,7 @@
         <v>2.2913032444193959E-4</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13">
       <c r="A196" t="s">
         <v>57</v>
       </c>
@@ -18938,7 +18943,7 @@
         <v>2.2913032444193959E-4</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13">
       <c r="A197" t="s">
         <v>58</v>
       </c>
@@ -18979,7 +18984,7 @@
         <v>2.7669960400089622E-4</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13">
       <c r="A198" t="s">
         <v>60</v>
       </c>
@@ -19020,7 +19025,7 @@
         <v>2.7669960400089622E-4</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13">
       <c r="A199" t="s">
         <v>61</v>
       </c>
@@ -19061,7 +19066,7 @@
         <v>2.7669960400089622E-4</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13">
       <c r="A200" t="s">
         <v>62</v>
       </c>
@@ -19102,7 +19107,7 @@
         <v>2.9502107645384967E-4</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13">
       <c r="A201" t="s">
         <v>64</v>
       </c>
@@ -19143,7 +19148,7 @@
         <v>2.9502107645384967E-4</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13">
       <c r="A202" t="s">
         <v>65</v>
       </c>
@@ -19184,7 +19189,7 @@
         <v>2.9502107645384967E-4</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13">
       <c r="A203" t="s">
         <v>66</v>
       </c>
@@ -19225,7 +19230,7 @@
         <v>4.9044954357668757E-4</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13">
       <c r="A204" t="s">
         <v>68</v>
       </c>
@@ -19266,7 +19271,7 @@
         <v>4.9044954357668757E-4</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13">
       <c r="A205" t="s">
         <v>69</v>
       </c>
@@ -19307,7 +19312,7 @@
         <v>4.9044954357668757E-4</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13">
       <c r="A206" t="s">
         <v>70</v>
       </c>
@@ -19348,7 +19353,7 @@
         <v>1.0939050116576254E-4</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13">
       <c r="A207" t="s">
         <v>72</v>
       </c>
@@ -19389,7 +19394,7 @@
         <v>1.0939050116576254E-4</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13">
       <c r="A208" t="s">
         <v>73</v>
       </c>
@@ -19430,7 +19435,7 @@
         <v>1.0939050116576254E-4</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13">
       <c r="A209" t="s">
         <v>74</v>
       </c>
@@ -19471,7 +19476,7 @@
         <v>1.4225344057194889E-4</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13">
       <c r="A210" t="s">
         <v>76</v>
       </c>
@@ -19512,7 +19517,7 @@
         <v>1.4225344057194889E-4</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13">
       <c r="A211" t="s">
         <v>77</v>
       </c>
@@ -19553,7 +19558,7 @@
         <v>1.4225344057194889E-4</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13">
       <c r="A212" t="s">
         <v>78</v>
       </c>
@@ -19594,7 +19599,7 @@
         <v>2.5728472974151373E-4</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13">
       <c r="A213" t="s">
         <v>80</v>
       </c>
@@ -19635,7 +19640,7 @@
         <v>2.5728472974151373E-4</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13">
       <c r="A214" t="s">
         <v>81</v>
       </c>
@@ -19676,7 +19681,7 @@
         <v>2.5728472974151373E-4</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13">
       <c r="A215" t="s">
         <v>82</v>
       </c>
@@ -19717,7 +19722,7 @@
         <v>2.401447418378666E-4</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13">
       <c r="A216" t="s">
         <v>84</v>
       </c>
@@ -19758,7 +19763,7 @@
         <v>2.401447418378666E-4</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13">
       <c r="A217" t="s">
         <v>85</v>
       </c>
@@ -19799,7 +19804,7 @@
         <v>2.401447418378666E-4</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13">
       <c r="A218" t="s">
         <v>86</v>
       </c>
@@ -19840,7 +19845,7 @@
         <v>9.2563779617194086E-5</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13">
       <c r="A219" t="s">
         <v>88</v>
       </c>
@@ -19881,7 +19886,7 @@
         <v>9.2563779617194086E-5</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13">
       <c r="A220" t="s">
         <v>89</v>
       </c>
@@ -19922,7 +19927,7 @@
         <v>9.2563779617194086E-5</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13">
       <c r="A221" t="s">
         <v>90</v>
       </c>
@@ -19963,7 +19968,7 @@
         <v>2.4646305246278644E-4</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13">
       <c r="A222" t="s">
         <v>92</v>
       </c>
@@ -20004,7 +20009,7 @@
         <v>2.4646305246278644E-4</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13">
       <c r="A223" t="s">
         <v>93</v>
       </c>
@@ -20045,7 +20050,7 @@
         <v>2.4646305246278644E-4</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13">
       <c r="A224" t="s">
         <v>94</v>
       </c>
@@ -20086,7 +20091,7 @@
         <v>1.7436528287362307E-4</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13">
       <c r="A225" t="s">
         <v>96</v>
       </c>
@@ -20127,7 +20132,7 @@
         <v>1.7436528287362307E-4</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13">
       <c r="A226" t="s">
         <v>97</v>
       </c>
@@ -20168,7 +20173,7 @@
         <v>1.7436528287362307E-4</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13">
       <c r="A227" t="s">
         <v>98</v>
       </c>
@@ -20209,7 +20214,7 @@
         <v>8.0520665505900979E-5</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13">
       <c r="A228" t="s">
         <v>100</v>
       </c>
@@ -20250,7 +20255,7 @@
         <v>8.0520665505900979E-5</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13">
       <c r="A229" t="s">
         <v>101</v>
       </c>
@@ -20291,7 +20296,7 @@
         <v>8.0520665505900979E-5</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13">
       <c r="A230" t="s">
         <v>102</v>
       </c>
@@ -20332,7 +20337,7 @@
         <v>2.4172173652914353E-5</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13">
       <c r="A231" t="s">
         <v>104</v>
       </c>
@@ -20373,7 +20378,7 @@
         <v>2.4172173652914353E-5</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13">
       <c r="A232" t="s">
         <v>105</v>
       </c>
@@ -20414,7 +20419,7 @@
         <v>2.4172173652914353E-5</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13">
       <c r="A233" t="s">
         <v>106</v>
       </c>
@@ -20455,7 +20460,7 @@
         <v>2.5429940433241427E-4</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13">
       <c r="A234" t="s">
         <v>108</v>
       </c>
@@ -20496,7 +20501,7 @@
         <v>2.5429940433241427E-4</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13">
       <c r="A235" t="s">
         <v>109</v>
       </c>
@@ -20537,7 +20542,7 @@
         <v>2.5429940433241427E-4</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13">
       <c r="A236" t="s">
         <v>110</v>
       </c>
@@ -20578,7 +20583,7 @@
         <v>2.5317032122984529E-4</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13">
       <c r="A237" t="s">
         <v>112</v>
       </c>
@@ -20619,7 +20624,7 @@
         <v>2.5317032122984529E-4</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13">
       <c r="A238" t="s">
         <v>113</v>
       </c>
@@ -20660,7 +20665,7 @@
         <v>2.5317032122984529E-4</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13">
       <c r="A239" t="s">
         <v>114</v>
       </c>
@@ -20701,7 +20706,7 @@
         <v>2.3959093960002065E-4</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13">
       <c r="A240" t="s">
         <v>116</v>
       </c>
@@ -20742,7 +20747,7 @@
         <v>2.3959093960002065E-4</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13">
       <c r="A241" t="s">
         <v>117</v>
       </c>
@@ -20783,7 +20788,7 @@
         <v>2.3959093960002065E-4</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13">
       <c r="A242" t="s">
         <v>10</v>
       </c>
@@ -20824,7 +20829,7 @@
         <v>1.7233109974768013E-4</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13">
       <c r="A243" t="s">
         <v>16</v>
       </c>
@@ -20865,7 +20870,7 @@
         <v>1.7233109974768013E-4</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13">
       <c r="A244" t="s">
         <v>17</v>
       </c>
@@ -20906,7 +20911,7 @@
         <v>1.7233109974768013E-4</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13">
       <c r="A245" t="s">
         <v>18</v>
       </c>
@@ -20947,7 +20952,7 @@
         <v>9.7108253976330161E-4</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13">
       <c r="A246" t="s">
         <v>20</v>
       </c>
@@ -20988,7 +20993,7 @@
         <v>9.7108253976330161E-4</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13">
       <c r="A247" t="s">
         <v>21</v>
       </c>
@@ -21029,7 +21034,7 @@
         <v>9.7108253976330161E-4</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13">
       <c r="A248" t="s">
         <v>22</v>
       </c>
@@ -21070,7 +21075,7 @@
         <v>2.1908672351855785E-4</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13">
       <c r="A249" t="s">
         <v>24</v>
       </c>
@@ -21111,7 +21116,7 @@
         <v>2.1908672351855785E-4</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13">
       <c r="A250" t="s">
         <v>25</v>
       </c>
@@ -21152,7 +21157,7 @@
         <v>2.1908672351855785E-4</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13">
       <c r="A251" t="s">
         <v>121</v>
       </c>
@@ -21193,7 +21198,7 @@
         <v>4.540462396107614E-4</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13">
       <c r="A252" t="s">
         <v>123</v>
       </c>
@@ -21234,7 +21239,7 @@
         <v>4.540462396107614E-4</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13">
       <c r="A253" t="s">
         <v>124</v>
       </c>
@@ -21275,7 +21280,7 @@
         <v>4.540462396107614E-4</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13">
       <c r="A254" t="s">
         <v>26</v>
       </c>
@@ -21316,7 +21321,7 @@
         <v>2.510207996238023E-4</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13">
       <c r="A255" t="s">
         <v>28</v>
       </c>
@@ -21357,7 +21362,7 @@
         <v>2.510207996238023E-4</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13">
       <c r="A256" t="s">
         <v>29</v>
       </c>
@@ -21398,7 +21403,7 @@
         <v>2.510207996238023E-4</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13">
       <c r="A257" t="s">
         <v>30</v>
       </c>
@@ -21439,7 +21444,7 @@
         <v>4.7066100523807108E-4</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13">
       <c r="A258" t="s">
         <v>32</v>
       </c>
@@ -21480,7 +21485,7 @@
         <v>4.7066100523807108E-4</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13">
       <c r="A259" t="s">
         <v>33</v>
       </c>
@@ -21521,7 +21526,7 @@
         <v>4.7066100523807108E-4</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13">
       <c r="A260" t="s">
         <v>34</v>
       </c>
@@ -21562,7 +21567,7 @@
         <v>1.5648119733668864E-4</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13">
       <c r="A261" t="s">
         <v>36</v>
       </c>
@@ -21603,7 +21608,7 @@
         <v>1.5648119733668864E-4</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13">
       <c r="A262" t="s">
         <v>37</v>
       </c>
@@ -21644,7 +21649,7 @@
         <v>1.5648119733668864E-4</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13">
       <c r="A263" t="s">
         <v>38</v>
       </c>
@@ -21685,7 +21690,7 @@
         <v>7.6735770562663674E-4</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13">
       <c r="A264" t="s">
         <v>40</v>
       </c>
@@ -21726,7 +21731,7 @@
         <v>7.6735770562663674E-4</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13">
       <c r="A265" t="s">
         <v>41</v>
       </c>
@@ -21767,7 +21772,7 @@
         <v>7.6735770562663674E-4</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13">
       <c r="A266" t="s">
         <v>42</v>
       </c>
@@ -21808,7 +21813,7 @@
         <v>8.7467563571408391E-4</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:13">
       <c r="A267" t="s">
         <v>44</v>
       </c>
@@ -21849,7 +21854,7 @@
         <v>8.7467563571408391E-4</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:13">
       <c r="A268" t="s">
         <v>45</v>
       </c>
@@ -21890,7 +21895,7 @@
         <v>8.7467563571408391E-4</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:13">
       <c r="A269" t="s">
         <v>46</v>
       </c>
@@ -21931,7 +21936,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:13">
       <c r="A270" t="s">
         <v>48</v>
       </c>
@@ -21972,7 +21977,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:13">
       <c r="A271" t="s">
         <v>49</v>
       </c>
@@ -22013,7 +22018,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:13">
       <c r="A272" t="s">
         <v>50</v>
       </c>
@@ -22054,7 +22059,7 @@
         <v>7.4976030737161636E-4</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:13">
       <c r="A273" t="s">
         <v>52</v>
       </c>
@@ -22095,7 +22100,7 @@
         <v>7.4976030737161636E-4</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13">
       <c r="A274" t="s">
         <v>53</v>
       </c>
@@ -22136,7 +22141,7 @@
         <v>7.4976030737161636E-4</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13">
       <c r="A275" t="s">
         <v>54</v>
       </c>
@@ -22177,7 +22182,7 @@
         <v>5.9766793856397271E-4</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:13">
       <c r="A276" t="s">
         <v>56</v>
       </c>
@@ -22218,7 +22223,7 @@
         <v>5.9766793856397271E-4</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13">
       <c r="A277" t="s">
         <v>57</v>
       </c>
@@ -22259,7 +22264,7 @@
         <v>5.9766793856397271E-4</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:13">
       <c r="A278" t="s">
         <v>58</v>
       </c>
@@ -22300,7 +22305,7 @@
         <v>4.3845229083672166E-4</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:13">
       <c r="A279" t="s">
         <v>60</v>
       </c>
@@ -22341,7 +22346,7 @@
         <v>4.3845229083672166E-4</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:13">
       <c r="A280" t="s">
         <v>61</v>
       </c>
@@ -22382,7 +22387,7 @@
         <v>4.3845229083672166E-4</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:13">
       <c r="A281" t="s">
         <v>62</v>
       </c>
@@ -22423,7 +22428,7 @@
         <v>2.7927683549933136E-4</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:13">
       <c r="A282" t="s">
         <v>64</v>
       </c>
@@ -22464,7 +22469,7 @@
         <v>2.7927683549933136E-4</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:13">
       <c r="A283" t="s">
         <v>65</v>
       </c>
@@ -22505,7 +22510,7 @@
         <v>2.7927683549933136E-4</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:13">
       <c r="A284" t="s">
         <v>66</v>
       </c>
@@ -22546,7 +22551,7 @@
         <v>3.3352934406138957E-4</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:13">
       <c r="A285" t="s">
         <v>68</v>
       </c>
@@ -22587,7 +22592,7 @@
         <v>3.3352934406138957E-4</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:13">
       <c r="A286" t="s">
         <v>69</v>
       </c>
@@ -22628,7 +22633,7 @@
         <v>3.3352934406138957E-4</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:13">
       <c r="A287" t="s">
         <v>70</v>
       </c>
@@ -22669,7 +22674,7 @@
         <v>2.3791952116880566E-4</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:13">
       <c r="A288" t="s">
         <v>72</v>
       </c>
@@ -22710,7 +22715,7 @@
         <v>2.3791952116880566E-4</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:13">
       <c r="A289" t="s">
         <v>73</v>
       </c>
@@ -22751,7 +22756,7 @@
         <v>2.3791952116880566E-4</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:13">
       <c r="A290" t="s">
         <v>74</v>
       </c>
@@ -22792,7 +22797,7 @@
         <v>5.5095122661441565E-4</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:13">
       <c r="A291" t="s">
         <v>76</v>
       </c>
@@ -22833,7 +22838,7 @@
         <v>5.5095122661441565E-4</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:13">
       <c r="A292" t="s">
         <v>77</v>
       </c>
@@ -22874,7 +22879,7 @@
         <v>5.5095122661441565E-4</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:13">
       <c r="A293" t="s">
         <v>78</v>
       </c>
@@ -22915,7 +22920,7 @@
         <v>4.177936352789402E-4</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:13">
       <c r="A294" t="s">
         <v>80</v>
       </c>
@@ -22956,7 +22961,7 @@
         <v>4.177936352789402E-4</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:13">
       <c r="A295" t="s">
         <v>81</v>
       </c>
@@ -22997,7 +23002,7 @@
         <v>4.177936352789402E-4</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:13">
       <c r="A296" t="s">
         <v>82</v>
       </c>
@@ -23038,7 +23043,7 @@
         <v>1.100977387977764E-4</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:13">
       <c r="A297" t="s">
         <v>84</v>
       </c>
@@ -23079,7 +23084,7 @@
         <v>1.100977387977764E-4</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:13">
       <c r="A298" t="s">
         <v>85</v>
       </c>
@@ -23120,7 +23125,7 @@
         <v>1.100977387977764E-4</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:13">
       <c r="A299" t="s">
         <v>86</v>
       </c>
@@ -23161,7 +23166,7 @@
         <v>2.6750561664812267E-4</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:13">
       <c r="A300" t="s">
         <v>88</v>
       </c>
@@ -23202,7 +23207,7 @@
         <v>2.6750561664812267E-4</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:13">
       <c r="A301" t="s">
         <v>89</v>
       </c>
@@ -23243,7 +23248,7 @@
         <v>2.6750561664812267E-4</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:13">
       <c r="A302" t="s">
         <v>90</v>
       </c>
@@ -23284,7 +23289,7 @@
         <v>1.012172142509371E-4</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:13">
       <c r="A303" t="s">
         <v>92</v>
       </c>
@@ -23325,7 +23330,7 @@
         <v>1.012172142509371E-4</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:13">
       <c r="A304" t="s">
         <v>93</v>
       </c>
@@ -23366,7 +23371,7 @@
         <v>1.012172142509371E-4</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:13">
       <c r="A305" t="s">
         <v>94</v>
       </c>
@@ -23407,7 +23412,7 @@
         <v>3.258793440181762E-4</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:13">
       <c r="A306" t="s">
         <v>96</v>
       </c>
@@ -23448,7 +23453,7 @@
         <v>3.258793440181762E-4</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:13">
       <c r="A307" t="s">
         <v>97</v>
       </c>
@@ -23489,7 +23494,7 @@
         <v>3.258793440181762E-4</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:13">
       <c r="A308" t="s">
         <v>98</v>
       </c>
@@ -23530,7 +23535,7 @@
         <v>2.3625628091394901E-4</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:13">
       <c r="A309" t="s">
         <v>100</v>
       </c>
@@ -23571,7 +23576,7 @@
         <v>2.3625628091394901E-4</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:13">
       <c r="A310" t="s">
         <v>101</v>
       </c>
@@ -23612,7 +23617,7 @@
         <v>2.3625628091394901E-4</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:13">
       <c r="A311" t="s">
         <v>102</v>
       </c>
@@ -23653,7 +23658,7 @@
         <v>1.4675500278826803E-4</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:13">
       <c r="A312" t="s">
         <v>104</v>
       </c>
@@ -23694,7 +23699,7 @@
         <v>1.4675500278826803E-4</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:13">
       <c r="A313" t="s">
         <v>105</v>
       </c>
@@ -23735,7 +23740,7 @@
         <v>1.4675500278826803E-4</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13">
       <c r="A314" t="s">
         <v>106</v>
       </c>
@@ -23776,7 +23781,7 @@
         <v>1.511473092250526E-4</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13">
       <c r="A315" t="s">
         <v>108</v>
       </c>
@@ -23817,7 +23822,7 @@
         <v>1.511473092250526E-4</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13">
       <c r="A316" t="s">
         <v>109</v>
       </c>
@@ -23858,7 +23863,7 @@
         <v>1.511473092250526E-4</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:13">
       <c r="A317" t="s">
         <v>110</v>
       </c>
@@ -23899,7 +23904,7 @@
         <v>1.3368581130634993E-4</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:13">
       <c r="A318" t="s">
         <v>112</v>
       </c>
@@ -23940,7 +23945,7 @@
         <v>1.3368581130634993E-4</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13">
       <c r="A319" t="s">
         <v>113</v>
       </c>
@@ -23981,7 +23986,7 @@
         <v>1.3368581130634993E-4</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13">
       <c r="A320" t="s">
         <v>114</v>
       </c>
@@ -24022,7 +24027,7 @@
         <v>1.6608243458904326E-4</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13">
       <c r="A321" t="s">
         <v>116</v>
       </c>
@@ -24063,7 +24068,7 @@
         <v>1.6608243458904326E-4</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:13">
       <c r="A322" t="s">
         <v>117</v>
       </c>
@@ -24104,7 +24109,7 @@
         <v>1.6608243458904326E-4</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:13">
       <c r="A323" t="s">
         <v>10</v>
       </c>
@@ -24145,7 +24150,7 @@
         <v>8.5775362094864249E-5</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:13">
       <c r="A324" t="s">
         <v>106</v>
       </c>
@@ -24186,7 +24191,7 @@
         <v>8.5775362094864249E-5</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:13">
       <c r="A325" t="s">
         <v>76</v>
       </c>
@@ -24227,7 +24232,7 @@
         <v>8.5775362094864249E-5</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:13">
       <c r="A326" t="s">
         <v>18</v>
       </c>
@@ -24268,7 +24273,7 @@
         <v>8.010784222278744E-5</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:13">
       <c r="A327" t="s">
         <v>110</v>
       </c>
@@ -24309,7 +24314,7 @@
         <v>8.010784222278744E-5</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:13">
       <c r="A328" t="s">
         <v>80</v>
       </c>
@@ -24350,7 +24355,7 @@
         <v>8.010784222278744E-5</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:13">
       <c r="A329" t="s">
         <v>22</v>
       </c>
@@ -24391,7 +24396,7 @@
         <v>1.1107937461929396E-4</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13">
       <c r="A330" t="s">
         <v>114</v>
       </c>
@@ -24432,7 +24437,7 @@
         <v>1.1107937461929396E-4</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:13">
       <c r="A331" t="s">
         <v>84</v>
       </c>
@@ -24473,7 +24478,7 @@
         <v>1.1107937461929396E-4</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13">
       <c r="A332" t="s">
         <v>121</v>
       </c>
@@ -24514,7 +24519,7 @@
         <v>2.7613461134023964E-4</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13">
       <c r="A333" t="s">
         <v>208</v>
       </c>
@@ -24555,7 +24560,7 @@
         <v>2.7613461134023964E-4</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13">
       <c r="A334" t="s">
         <v>88</v>
       </c>
@@ -24596,7 +24601,7 @@
         <v>2.7613461134023964E-4</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13">
       <c r="A335" t="s">
         <v>26</v>
       </c>
@@ -24637,7 +24642,7 @@
         <v>1.7909466987475753E-4</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:13">
       <c r="A336" t="s">
         <v>210</v>
       </c>
@@ -24678,7 +24683,7 @@
         <v>1.7909466987475753E-4</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:13">
       <c r="A337" t="s">
         <v>92</v>
       </c>
@@ -24719,7 +24724,7 @@
         <v>1.7909466987475753E-4</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:13">
       <c r="A338" t="s">
         <v>30</v>
       </c>
@@ -24760,7 +24765,7 @@
         <v>4.2826923890970647E-4</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:13">
       <c r="A339" t="s">
         <v>212</v>
       </c>
@@ -24801,7 +24806,7 @@
         <v>4.2826923890970647E-4</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:13">
       <c r="A340" t="s">
         <v>96</v>
       </c>
@@ -24842,7 +24847,7 @@
         <v>4.2826923890970647E-4</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:13">
       <c r="A341" t="s">
         <v>34</v>
       </c>
@@ -24883,7 +24888,7 @@
         <v>2.0370008132886142E-4</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:13">
       <c r="A342" t="s">
         <v>214</v>
       </c>
@@ -24924,7 +24929,7 @@
         <v>2.0370008132886142E-4</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:13">
       <c r="A343" t="s">
         <v>100</v>
       </c>
@@ -24965,7 +24970,7 @@
         <v>2.0370008132886142E-4</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:13">
       <c r="A344" t="s">
         <v>38</v>
       </c>
@@ -25006,7 +25011,7 @@
         <v>4.0039053419604897E-4</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13">
       <c r="A345" t="s">
         <v>216</v>
       </c>
@@ -25047,7 +25052,7 @@
         <v>4.0039053419604897E-4</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:13">
       <c r="A346" t="s">
         <v>104</v>
       </c>
@@ -25088,7 +25093,7 @@
         <v>4.0039053419604897E-4</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13">
       <c r="A347" t="s">
         <v>42</v>
       </c>
@@ -25129,7 +25134,7 @@
         <v>5.5256830819416791E-5</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13">
       <c r="A348" t="s">
         <v>16</v>
       </c>
@@ -25170,7 +25175,7 @@
         <v>5.5256830819416791E-5</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:13">
       <c r="A349" t="s">
         <v>108</v>
       </c>
@@ -25211,7 +25216,7 @@
         <v>5.5256830819416791E-5</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:13">
       <c r="A350" t="s">
         <v>46</v>
       </c>
@@ -25252,7 +25257,7 @@
         <v>4.1199810220859945E-4</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:13">
       <c r="A351" t="s">
         <v>20</v>
       </c>
@@ -25293,7 +25298,7 @@
         <v>4.1199810220859945E-4</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13">
       <c r="A352" t="s">
         <v>112</v>
       </c>
@@ -25334,7 +25339,7 @@
         <v>4.1199810220859945E-4</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:13">
       <c r="A353" t="s">
         <v>50</v>
       </c>
@@ -25375,7 +25380,7 @@
         <v>3.5487097193254158E-5</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:13">
       <c r="A354" t="s">
         <v>24</v>
       </c>
@@ -25416,7 +25421,7 @@
         <v>3.5487097193254158E-5</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:13">
       <c r="A355" t="s">
         <v>116</v>
       </c>
@@ -25457,7 +25462,7 @@
         <v>3.5487097193254158E-5</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:13">
       <c r="A356" t="s">
         <v>54</v>
       </c>
@@ -25498,7 +25503,7 @@
         <v>4.3323455611243844E-4</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:13">
       <c r="A357" t="s">
         <v>123</v>
       </c>
@@ -25539,7 +25544,7 @@
         <v>4.3323455611243844E-4</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:13">
       <c r="A358" t="s">
         <v>221</v>
       </c>
@@ -25580,7 +25585,7 @@
         <v>4.3323455611243844E-4</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:13">
       <c r="A359" t="s">
         <v>58</v>
       </c>
@@ -25621,7 +25626,7 @@
         <v>4.4717200216837227E-4</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:13">
       <c r="A360" t="s">
         <v>28</v>
       </c>
@@ -25662,7 +25667,7 @@
         <v>4.4717200216837227E-4</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:13">
       <c r="A361" t="s">
         <v>223</v>
       </c>
@@ -25703,7 +25708,7 @@
         <v>4.4717200216837227E-4</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:13">
       <c r="A362" t="s">
         <v>62</v>
       </c>
@@ -25744,7 +25749,7 @@
         <v>5.2211730508133769E-4</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:13">
       <c r="A363" t="s">
         <v>32</v>
       </c>
@@ -25785,7 +25790,7 @@
         <v>5.2211730508133769E-4</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:13">
       <c r="A364" t="s">
         <v>225</v>
       </c>
@@ -25826,7 +25831,7 @@
         <v>5.2211730508133769E-4</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:13">
       <c r="A365" t="s">
         <v>66</v>
       </c>
@@ -25867,7 +25872,7 @@
         <v>1.1276472359895706E-3</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:13">
       <c r="A366" t="s">
         <v>36</v>
       </c>
@@ -25908,7 +25913,7 @@
         <v>1.1276472359895706E-3</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:13">
       <c r="A367" t="s">
         <v>227</v>
       </c>
@@ -25949,7 +25954,7 @@
         <v>1.1276472359895706E-3</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:13">
       <c r="A368" t="s">
         <v>221</v>
       </c>
@@ -25987,7 +25992,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:13">
       <c r="A369" t="s">
         <v>228</v>
       </c>
@@ -26025,7 +26030,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:13">
       <c r="A370" t="s">
         <v>221</v>
       </c>
@@ -26063,7 +26068,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:13">
       <c r="A371" t="s">
         <v>228</v>
       </c>
@@ -26101,7 +26106,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:13">
       <c r="A372" t="s">
         <v>74</v>
       </c>
@@ -26139,7 +26144,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:13">
       <c r="A373" t="s">
         <v>44</v>
       </c>
@@ -26177,7 +26182,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:13">
       <c r="A374" t="s">
         <v>78</v>
       </c>
@@ -26215,7 +26220,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:13">
       <c r="A375" t="s">
         <v>48</v>
       </c>
@@ -26253,7 +26258,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:13">
       <c r="A376" t="s">
         <v>121</v>
       </c>
@@ -26291,7 +26296,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:13">
       <c r="A377" t="s">
         <v>123</v>
       </c>
@@ -26329,7 +26334,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:13">
       <c r="A378" t="s">
         <v>124</v>
       </c>
@@ -26367,7 +26372,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:13">
       <c r="A379" t="s">
         <v>208</v>
       </c>
@@ -26406,7 +26411,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:13">
       <c r="A380" t="s">
         <v>208</v>
       </c>
@@ -26445,7 +26450,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:13">
       <c r="A381" t="s">
         <v>70</v>
       </c>
@@ -26484,7 +26489,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:13">
       <c r="A382" t="s">
         <v>40</v>
       </c>
@@ -26523,7 +26528,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:13">
       <c r="A383" t="s">
         <v>232</v>
       </c>
@@ -26562,7 +26567,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:13">
       <c r="A384" t="s">
         <v>208</v>
       </c>
@@ -26601,7 +26606,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:13">
       <c r="A385" t="s">
         <v>221</v>
       </c>
@@ -26640,7 +26645,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:13">
       <c r="A386" t="s">
         <v>228</v>
       </c>
@@ -26679,7 +26684,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:13">
       <c r="A387" t="s">
         <v>208</v>
       </c>
@@ -26718,7 +26723,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:13">
       <c r="A388" t="s">
         <v>221</v>
       </c>
@@ -26757,7 +26762,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:13">
       <c r="A389" t="s">
         <v>228</v>
       </c>
@@ -26796,7 +26801,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:13">
       <c r="A390" t="s">
         <v>233</v>
       </c>
@@ -26835,7 +26840,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:13">
       <c r="A391" t="s">
         <v>210</v>
       </c>
@@ -26874,7 +26879,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:13">
       <c r="A392" t="s">
         <v>223</v>
       </c>
@@ -26913,7 +26918,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:13">
       <c r="A393" t="s">
         <v>233</v>
       </c>
@@ -26952,7 +26957,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:13">
       <c r="A394" t="s">
         <v>210</v>
       </c>
@@ -26991,7 +26996,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:13">
       <c r="A395" t="s">
         <v>223</v>
       </c>
@@ -27030,7 +27035,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:13">
       <c r="A396" t="s">
         <v>233</v>
       </c>
@@ -27069,7 +27074,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:13">
       <c r="A397" t="s">
         <v>90</v>
       </c>
@@ -27108,7 +27113,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:13">
       <c r="A398" t="s">
         <v>60</v>
       </c>
@@ -27147,7 +27152,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:13">
       <c r="A399" t="s">
         <v>233</v>
       </c>
@@ -27186,7 +27191,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:13">
       <c r="A400" t="s">
         <v>210</v>
       </c>
@@ -27225,7 +27230,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:13">
       <c r="A401" t="s">
         <v>223</v>
       </c>
@@ -27264,7 +27269,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:13">
       <c r="A402" t="s">
         <v>233</v>
       </c>
@@ -27303,7 +27308,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:13">
       <c r="A403" t="s">
         <v>210</v>
       </c>
@@ -27342,7 +27347,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:13">
       <c r="A404" t="s">
         <v>223</v>
       </c>
@@ -27381,7 +27386,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:13">
       <c r="A405" t="s">
         <v>240</v>
       </c>
@@ -27420,7 +27425,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:13">
       <c r="A406" t="s">
         <v>212</v>
       </c>
@@ -27459,7 +27464,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:13">
       <c r="A407" t="s">
         <v>225</v>
       </c>
@@ -27498,7 +27503,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:13">
       <c r="A408" t="s">
         <v>240</v>
       </c>
@@ -27537,7 +27542,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:13">
       <c r="A409" t="s">
         <v>212</v>
       </c>
@@ -27576,7 +27581,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:13">
       <c r="A410" t="s">
         <v>225</v>
       </c>
@@ -27615,7 +27620,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:13">
       <c r="A411" t="s">
         <v>240</v>
       </c>
@@ -27654,7 +27659,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:13">
       <c r="A412" t="s">
         <v>94</v>
       </c>
@@ -27693,7 +27698,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:13">
       <c r="A413" t="s">
         <v>64</v>
       </c>
@@ -27732,7 +27737,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:13">
       <c r="A414" t="s">
         <v>240</v>
       </c>
@@ -27771,7 +27776,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:13">
       <c r="A415" t="s">
         <v>212</v>
       </c>
@@ -27810,7 +27815,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:13">
       <c r="A416" t="s">
         <v>225</v>
       </c>
@@ -27849,7 +27854,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:13">
       <c r="A417" t="s">
         <v>240</v>
       </c>
@@ -27888,7 +27893,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:13">
       <c r="A418" t="s">
         <v>212</v>
       </c>
@@ -27927,7 +27932,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:13">
       <c r="A419" t="s">
         <v>225</v>
       </c>
@@ -27966,7 +27971,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:13">
       <c r="A420" t="s">
         <v>246</v>
       </c>
@@ -28005,7 +28010,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:13">
       <c r="A421" t="s">
         <v>214</v>
       </c>
@@ -28044,7 +28049,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:13">
       <c r="A422" t="s">
         <v>227</v>
       </c>
@@ -28083,7 +28088,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:13">
       <c r="A423" t="s">
         <v>246</v>
       </c>
@@ -28122,7 +28127,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:13">
       <c r="A424" t="s">
         <v>214</v>
       </c>
@@ -28161,7 +28166,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:13">
       <c r="A425" t="s">
         <v>227</v>
       </c>
@@ -28200,7 +28205,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:13">
       <c r="A426" t="s">
         <v>246</v>
       </c>
@@ -28239,7 +28244,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:13">
       <c r="A427" t="s">
         <v>98</v>
       </c>
@@ -28278,7 +28283,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:13">
       <c r="A428" t="s">
         <v>68</v>
       </c>
@@ -28317,7 +28322,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:13">
       <c r="A429" t="s">
         <v>246</v>
       </c>
@@ -28356,7 +28361,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:13">
       <c r="A430" t="s">
         <v>214</v>
       </c>
@@ -28395,7 +28400,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:13">
       <c r="A431" t="s">
         <v>227</v>
       </c>
@@ -28434,7 +28439,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:13">
       <c r="A432" t="s">
         <v>246</v>
       </c>
@@ -28473,7 +28478,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:13">
       <c r="A433" t="s">
         <v>214</v>
       </c>
@@ -28512,7 +28517,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:13">
       <c r="A434" t="s">
         <v>227</v>
       </c>
@@ -28551,7 +28556,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:13">
       <c r="A435" t="s">
         <v>252</v>
       </c>
@@ -28590,7 +28595,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:13">
       <c r="A436" t="s">
         <v>216</v>
       </c>
@@ -28629,7 +28634,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:13">
       <c r="A437" t="s">
         <v>232</v>
       </c>
@@ -28668,7 +28673,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:13">
       <c r="A438" t="s">
         <v>252</v>
       </c>
@@ -28707,7 +28712,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:13">
       <c r="A439" t="s">
         <v>216</v>
       </c>
@@ -28746,7 +28751,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:13">
       <c r="A440" t="s">
         <v>232</v>
       </c>
@@ -28785,7 +28790,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:13">
       <c r="A441" t="s">
         <v>252</v>
       </c>
@@ -28824,7 +28829,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:13">
       <c r="A442" t="s">
         <v>102</v>
       </c>
@@ -28863,7 +28868,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:13">
       <c r="A443" t="s">
         <v>72</v>
       </c>
@@ -28902,7 +28907,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:13">
       <c r="A444" t="s">
         <v>252</v>
       </c>
@@ -28941,7 +28946,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:13">
       <c r="A445" t="s">
         <v>216</v>
       </c>
@@ -28980,7 +28985,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:13">
       <c r="A446" t="s">
         <v>232</v>
       </c>
@@ -29019,7 +29024,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:13">
       <c r="A447" t="s">
         <v>252</v>
       </c>
@@ -29058,7 +29063,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:13">
       <c r="A448" t="s">
         <v>216</v>
       </c>
@@ -29097,7 +29102,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:13">
       <c r="A449" t="s">
         <v>232</v>
       </c>
@@ -29137,6 +29142,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M449" xr:uid="{0AC4E00F-9779-044D-BA79-BC7283B3BFCC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/2016_AukeCoho_qPCR_20171024.xlsx
+++ b/data/2016_AukeCoho_qPCR_20171024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Negorashi2011/Dropbox/Working_docs/Yang salmon qPCR/2017_2016_Auke_qPCR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEE2834-3FE3-4842-BEB1-6C7BAB9D1F07}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016796C1-4E91-1D43-95FA-34F28697C24E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38440" windowHeight="23560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="23560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1018,7 +1018,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$1</c:f>
+              <c:f>Sheet1!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1041,7 +1041,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$Q$38:$Q$116</c:f>
+              <c:f>Sheet1!$P$38:$P$116</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="79"/>
@@ -1287,7 +1287,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$38:$R$133</c:f>
+              <c:f>Sheet1!$Q$38:$Q$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -1378,7 +1378,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$S$1</c:f>
+              <c:f>Sheet1!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1401,7 +1401,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$Q$38:$Q$116</c:f>
+              <c:f>Sheet1!$P$38:$P$116</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="79"/>
@@ -1647,7 +1647,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$38:$S$133</c:f>
+              <c:f>Sheet1!$R$38:$R$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -1723,7 +1723,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$T$1</c:f>
+              <c:f>Sheet1!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1746,7 +1746,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$Q$38:$Q$116</c:f>
+              <c:f>Sheet1!$P$38:$P$116</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="79"/>
@@ -1992,7 +1992,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$38:$T$133</c:f>
+              <c:f>Sheet1!$S$38:$S$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -2125,7 +2125,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$U$1</c:f>
+              <c:f>Sheet1!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2148,7 +2148,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$Q$38:$Q$116</c:f>
+              <c:f>Sheet1!$P$38:$P$116</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="79"/>
@@ -2394,7 +2394,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$U$38:$U$133</c:f>
+              <c:f>Sheet1!$T$38:$T$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -2575,7 +2575,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$V$1</c:f>
+              <c:f>Sheet1!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2598,7 +2598,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$Q$38:$Q$116</c:f>
+              <c:f>Sheet1!$P$38:$P$116</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="79"/>
@@ -2844,7 +2844,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$V$38:$V$169</c:f>
+              <c:f>Sheet1!$U$38:$U$169</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="132"/>
@@ -6984,16 +6984,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7020,16 +7020,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>50806</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>88906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7320,11 +7320,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V449"/>
+  <dimension ref="A1:U449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AM27" sqref="AM27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7332,17 +7332,18 @@
     <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.1640625" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" customWidth="1"/>
+    <col min="15" max="15" width="8.1640625" customWidth="1"/>
+    <col min="21" max="21" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7382,30 +7383,29 @@
       <c r="M1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="P1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="P1" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="Q1" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="V1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -7445,19 +7445,19 @@
       <c r="M2">
         <v>1.3670107000507414E-4</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="P2" s="4">
         <v>42538</v>
       </c>
+      <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="7"/>
-      <c r="V2">
-        <f>SUM(R2:U2)</f>
+      <c r="S2" s="6"/>
+      <c r="T2" s="7"/>
+      <c r="U2">
+        <f>SUM(Q2:T2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -7497,19 +7497,19 @@
       <c r="M3">
         <v>1.3670107000507414E-4</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="P3" s="4">
         <v>42539</v>
       </c>
+      <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="7"/>
-      <c r="V3">
-        <f t="shared" ref="V3:V66" si="0">SUM(R3:U3)</f>
+      <c r="S3" s="6"/>
+      <c r="T3" s="7"/>
+      <c r="U3">
+        <f t="shared" ref="U3:U66" si="0">SUM(Q3:T3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -7549,21 +7549,21 @@
       <c r="M4">
         <v>1.3670107000507414E-4</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="P4" s="4">
         <v>42540</v>
       </c>
+      <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="7">
+      <c r="S4" s="6"/>
+      <c r="T4" s="7">
         <v>2</v>
       </c>
-      <c r="V4">
+      <c r="U4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -7603,21 +7603,21 @@
       <c r="M5">
         <v>2.6805910238181241E-5</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="P5" s="4">
         <v>42541</v>
       </c>
+      <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="7">
+      <c r="S5" s="6"/>
+      <c r="T5" s="7">
         <v>1</v>
       </c>
-      <c r="V5">
+      <c r="U5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -7657,21 +7657,21 @@
       <c r="M6">
         <v>2.6805910238181241E-5</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="P6" s="4">
         <v>42542</v>
       </c>
+      <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="7">
+      <c r="S6" s="6"/>
+      <c r="T6" s="7">
         <v>2</v>
       </c>
-      <c r="V6">
+      <c r="U6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -7711,21 +7711,21 @@
       <c r="M7">
         <v>2.6805910238181241E-5</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="P7" s="4">
         <v>42543</v>
       </c>
+      <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="7">
+      <c r="S7" s="6"/>
+      <c r="T7" s="7">
         <v>6</v>
       </c>
-      <c r="V7">
+      <c r="U7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -7765,21 +7765,21 @@
       <c r="M8">
         <v>4.1223705920856446E-5</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="P8" s="4">
         <v>42544</v>
       </c>
+      <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="7">
+      <c r="S8" s="6"/>
+      <c r="T8" s="7">
         <v>3</v>
       </c>
-      <c r="V8">
+      <c r="U8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -7819,21 +7819,21 @@
       <c r="M9">
         <v>4.1223705920856446E-5</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="P9" s="4">
         <v>42545</v>
       </c>
+      <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="7">
+      <c r="S9" s="6"/>
+      <c r="T9" s="7">
         <v>1</v>
       </c>
-      <c r="V9">
+      <c r="U9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -7873,21 +7873,21 @@
       <c r="M10">
         <v>4.1223705920856446E-5</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="P10" s="4">
         <v>42546</v>
       </c>
+      <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="7">
+      <c r="S10" s="6"/>
+      <c r="T10" s="7">
         <v>3</v>
       </c>
-      <c r="V10">
+      <c r="U10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -7927,21 +7927,21 @@
       <c r="M11">
         <v>6.5369742515031248E-5</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="P11" s="4">
         <v>42547</v>
       </c>
+      <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="7">
+      <c r="S11" s="6"/>
+      <c r="T11" s="7">
         <v>5</v>
       </c>
-      <c r="V11">
+      <c r="U11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -7981,21 +7981,21 @@
       <c r="M12">
         <v>6.5369742515031248E-5</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="P12" s="4">
         <v>42548</v>
       </c>
+      <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8">
+      <c r="T12" s="8">
         <v>4</v>
       </c>
-      <c r="V12">
+      <c r="U12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -8035,21 +8035,21 @@
       <c r="M13">
         <v>6.5369742515031248E-5</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="P13" s="4">
         <v>42549</v>
       </c>
+      <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8">
+      <c r="T13" s="8">
         <v>2</v>
       </c>
-      <c r="V13">
+      <c r="U13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -8089,21 +8089,21 @@
       <c r="M14">
         <v>1.4983007531554904E-5</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="P14" s="4">
         <v>42550</v>
       </c>
+      <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8">
+      <c r="T14" s="8">
         <v>1</v>
       </c>
-      <c r="V14">
+      <c r="U14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -8143,21 +8143,21 @@
       <c r="M15">
         <v>1.4983007531554904E-5</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="P15" s="4">
         <v>42551</v>
       </c>
+      <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8">
+      <c r="T15" s="8">
         <v>2</v>
       </c>
-      <c r="V15">
+      <c r="U15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -8197,19 +8197,19 @@
       <c r="M16">
         <v>1.4983007531554904E-5</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="P16" s="4">
         <v>42552</v>
       </c>
+      <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16">
+      <c r="U16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -8249,21 +8249,21 @@
       <c r="M17">
         <v>4.3620260839816183E-5</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="P17" s="4">
         <v>42553</v>
       </c>
+      <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8">
+      <c r="T17" s="8">
         <v>1</v>
       </c>
-      <c r="V17">
+      <c r="U17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -8303,19 +8303,19 @@
       <c r="M18">
         <v>4.3620260839816183E-5</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="P18" s="4">
         <v>42554</v>
       </c>
+      <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18">
+      <c r="U18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -8355,19 +8355,19 @@
       <c r="M19">
         <v>4.3620260839816183E-5</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="P19" s="4">
         <v>42555</v>
       </c>
+      <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19">
+      <c r="U19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -8407,19 +8407,19 @@
       <c r="M20">
         <v>4.6607699914602563E-5</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="P20" s="4">
         <v>42556</v>
       </c>
+      <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20">
+      <c r="U20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -8459,19 +8459,19 @@
       <c r="M21">
         <v>4.6607699914602563E-5</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="P21" s="4">
         <v>42557</v>
       </c>
+      <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
       <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21">
+      <c r="U21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -8511,19 +8511,19 @@
       <c r="M22">
         <v>4.6607699914602563E-5</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="P22" s="4">
         <v>42558</v>
       </c>
+      <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
       <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22">
+      <c r="U22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -8563,19 +8563,19 @@
       <c r="M23">
         <v>4.4004838855471462E-5</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="P23" s="4">
         <v>42559</v>
       </c>
+      <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
       <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23">
+      <c r="U23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -8615,21 +8615,21 @@
       <c r="M24">
         <v>4.4004838855471462E-5</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="P24" s="4">
         <v>42560</v>
       </c>
+      <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8">
+      <c r="T24" s="8">
         <v>1</v>
       </c>
-      <c r="V24">
+      <c r="U24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -8669,21 +8669,21 @@
       <c r="M25">
         <v>4.4004838855471462E-5</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="P25" s="4">
         <v>42561</v>
       </c>
+      <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8">
+      <c r="T25" s="8">
         <v>2</v>
       </c>
-      <c r="V25">
+      <c r="U25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -8723,21 +8723,21 @@
       <c r="M26">
         <v>5.6955279433168471E-5</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="P26" s="4">
         <v>42562</v>
       </c>
+      <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8">
+      <c r="T26" s="8">
         <v>2</v>
       </c>
-      <c r="V26">
+      <c r="U26">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -8777,21 +8777,21 @@
       <c r="M27">
         <v>5.6955279433168471E-5</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="P27" s="4">
         <v>42563</v>
       </c>
+      <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8">
+      <c r="T27" s="8">
         <v>2</v>
       </c>
-      <c r="V27">
+      <c r="U27">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -8831,19 +8831,19 @@
       <c r="M28">
         <v>5.6955279433168471E-5</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="P28" s="4">
         <v>42564</v>
       </c>
+      <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
       <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28">
+      <c r="U28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -8883,19 +8883,19 @@
       <c r="M29">
         <v>6.5523519879207015E-5</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="P29" s="4">
         <v>42565</v>
       </c>
+      <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
       <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29">
+      <c r="U29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -8935,19 +8935,19 @@
       <c r="M30">
         <v>6.5523519879207015E-5</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="P30" s="4">
         <v>42566</v>
       </c>
+      <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30">
+      <c r="U30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -8987,19 +8987,19 @@
       <c r="M31">
         <v>6.5523519879207015E-5</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="P31" s="4">
         <v>42567</v>
       </c>
+      <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
       <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31">
+      <c r="U31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -9039,21 +9039,21 @@
       <c r="M32">
         <v>1.2674300523940474E-4</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="P32" s="4">
         <v>42568</v>
       </c>
+      <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8">
+      <c r="T32" s="8">
         <v>1</v>
       </c>
-      <c r="V32">
+      <c r="U32">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -9093,19 +9093,19 @@
       <c r="M33">
         <v>1.2674300523940474E-4</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="P33" s="4">
         <v>42569</v>
       </c>
+      <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
       <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33">
+      <c r="U33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -9145,21 +9145,21 @@
       <c r="M34">
         <v>1.2674300523940474E-4</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="P34" s="4">
         <v>42570</v>
       </c>
+      <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8">
+      <c r="T34" s="8">
         <v>1</v>
       </c>
-      <c r="V34">
+      <c r="U34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -9199,19 +9199,19 @@
       <c r="M35">
         <v>5.4100932175060734E-5</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="P35" s="4">
         <v>42571</v>
       </c>
+      <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
       <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35">
+      <c r="U35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -9251,19 +9251,19 @@
       <c r="M36">
         <v>5.4100932175060734E-5</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="P36" s="4">
         <v>42572</v>
       </c>
+      <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
       <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36">
+      <c r="U36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -9303,19 +9303,19 @@
       <c r="M37">
         <v>5.4100932175060734E-5</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="P37" s="4">
         <v>42573</v>
       </c>
+      <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
       <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37">
+      <c r="U37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -9355,19 +9355,19 @@
       <c r="M38">
         <v>4.5278407924342901E-5</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="P38" s="4">
         <v>42574</v>
       </c>
+      <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
       <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38">
+      <c r="U38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -9407,19 +9407,19 @@
       <c r="M39">
         <v>4.5278407924342901E-5</v>
       </c>
-      <c r="Q39" s="4">
+      <c r="P39" s="4">
         <v>42575</v>
       </c>
+      <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
       <c r="S39" s="8"/>
       <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39">
+      <c r="U39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -9459,19 +9459,19 @@
       <c r="M40">
         <v>4.5278407924342901E-5</v>
       </c>
-      <c r="Q40" s="4">
+      <c r="P40" s="4">
         <v>42576</v>
       </c>
+      <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
       <c r="S40" s="8"/>
       <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40">
+      <c r="U40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -9511,19 +9511,19 @@
       <c r="M41">
         <v>2.6311117835575715E-5</v>
       </c>
-      <c r="Q41" s="4">
+      <c r="P41" s="4">
         <v>42577</v>
       </c>
+      <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
       <c r="S41" s="8"/>
       <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41">
+      <c r="U41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:21">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -9563,19 +9563,19 @@
       <c r="M42">
         <v>2.6311117835575715E-5</v>
       </c>
-      <c r="Q42" s="4">
+      <c r="P42" s="4">
         <v>42578</v>
       </c>
+      <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
       <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42">
+      <c r="U42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -9615,19 +9615,19 @@
       <c r="M43">
         <v>2.6311117835575715E-5</v>
       </c>
-      <c r="Q43" s="4">
+      <c r="P43" s="4">
         <v>42579</v>
       </c>
+      <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43">
+      <c r="U43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:21">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -9667,19 +9667,19 @@
       <c r="M44">
         <v>6.0893977206433192E-5</v>
       </c>
-      <c r="Q44" s="4">
+      <c r="P44" s="4">
         <v>42580</v>
       </c>
+      <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
       <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44">
+      <c r="U44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
         <v>72</v>
       </c>
@@ -9719,19 +9719,19 @@
       <c r="M45">
         <v>6.0893977206433192E-5</v>
       </c>
-      <c r="Q45" s="4">
+      <c r="P45" s="4">
         <v>42581</v>
       </c>
+      <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
       <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="V45">
+      <c r="U45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -9771,19 +9771,19 @@
       <c r="M46">
         <v>6.0893977206433192E-5</v>
       </c>
-      <c r="Q46" s="4">
+      <c r="P46" s="4">
         <v>42582</v>
       </c>
+      <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
       <c r="T46" s="8"/>
-      <c r="U46" s="8"/>
-      <c r="V46">
+      <c r="U46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:21">
       <c r="A47" t="s">
         <v>74</v>
       </c>
@@ -9823,19 +9823,19 @@
       <c r="M47">
         <v>7.3749797593336552E-5</v>
       </c>
-      <c r="Q47" s="4">
+      <c r="P47" s="4">
         <v>42583</v>
       </c>
+      <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
       <c r="S47" s="8"/>
       <c r="T47" s="8"/>
-      <c r="U47" s="8"/>
-      <c r="V47">
+      <c r="U47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:21">
       <c r="A48" t="s">
         <v>76</v>
       </c>
@@ -9875,19 +9875,19 @@
       <c r="M48">
         <v>7.3749797593336552E-5</v>
       </c>
-      <c r="Q48" s="4">
+      <c r="P48" s="4">
         <v>42584</v>
       </c>
+      <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
-      <c r="U48" s="8"/>
-      <c r="V48">
+      <c r="U48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:21">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -9927,19 +9927,19 @@
       <c r="M49">
         <v>7.3749797593336552E-5</v>
       </c>
-      <c r="Q49" s="4">
+      <c r="P49" s="4">
         <v>42585</v>
       </c>
+      <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
       <c r="S49" s="8"/>
       <c r="T49" s="8"/>
-      <c r="U49" s="8"/>
-      <c r="V49">
+      <c r="U49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:21">
       <c r="A50" t="s">
         <v>78</v>
       </c>
@@ -9979,19 +9979,19 @@
       <c r="M50">
         <v>2.699303331610281E-5</v>
       </c>
-      <c r="Q50" s="4">
+      <c r="P50" s="4">
         <v>42586</v>
       </c>
+      <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
       <c r="S50" s="8"/>
       <c r="T50" s="8"/>
-      <c r="U50" s="8"/>
-      <c r="V50">
+      <c r="U50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:21">
       <c r="A51" t="s">
         <v>80</v>
       </c>
@@ -10031,19 +10031,19 @@
       <c r="M51">
         <v>2.699303331610281E-5</v>
       </c>
-      <c r="Q51" s="4">
+      <c r="P51" s="4">
         <v>42587</v>
       </c>
+      <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
       <c r="S51" s="8"/>
       <c r="T51" s="8"/>
-      <c r="U51" s="8"/>
-      <c r="V51">
+      <c r="U51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:21">
       <c r="A52" t="s">
         <v>81</v>
       </c>
@@ -10083,19 +10083,19 @@
       <c r="M52">
         <v>2.699303331610281E-5</v>
       </c>
-      <c r="Q52" s="4">
+      <c r="P52" s="4">
         <v>42588</v>
       </c>
+      <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
       <c r="S52" s="8"/>
       <c r="T52" s="8"/>
-      <c r="U52" s="8"/>
-      <c r="V52">
+      <c r="U52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:21">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -10135,19 +10135,19 @@
       <c r="M53">
         <v>1.2517604045569897E-4</v>
       </c>
-      <c r="Q53" s="4">
+      <c r="P53" s="4">
         <v>42589</v>
       </c>
+      <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
       <c r="S53" s="8"/>
       <c r="T53" s="8"/>
-      <c r="U53" s="8"/>
-      <c r="V53">
+      <c r="U53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:21">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -10187,19 +10187,19 @@
       <c r="M54">
         <v>1.2517604045569897E-4</v>
       </c>
-      <c r="Q54" s="4">
+      <c r="P54" s="4">
         <v>42590</v>
       </c>
+      <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
       <c r="S54" s="8"/>
       <c r="T54" s="8"/>
-      <c r="U54" s="8"/>
-      <c r="V54">
+      <c r="U54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:21">
       <c r="A55" t="s">
         <v>85</v>
       </c>
@@ -10239,19 +10239,19 @@
       <c r="M55">
         <v>1.2517604045569897E-4</v>
       </c>
-      <c r="Q55" s="4">
+      <c r="P55" s="4">
         <v>42591</v>
       </c>
+      <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
       <c r="S55" s="8"/>
       <c r="T55" s="8"/>
-      <c r="U55" s="8"/>
-      <c r="V55">
+      <c r="U55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:21">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -10291,19 +10291,19 @@
       <c r="M56">
         <v>3.529893365339376E-5</v>
       </c>
-      <c r="Q56" s="4">
+      <c r="P56" s="4">
         <v>42592</v>
       </c>
+      <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
       <c r="S56" s="8"/>
       <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
-      <c r="V56">
+      <c r="U56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:21">
       <c r="A57" t="s">
         <v>88</v>
       </c>
@@ -10343,19 +10343,19 @@
       <c r="M57">
         <v>3.529893365339376E-5</v>
       </c>
-      <c r="Q57" s="4">
+      <c r="P57" s="4">
         <v>42593</v>
       </c>
+      <c r="Q57" s="8"/>
       <c r="R57" s="8"/>
       <c r="S57" s="8"/>
       <c r="T57" s="8"/>
-      <c r="U57" s="8"/>
-      <c r="V57">
+      <c r="U57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:21">
       <c r="A58" t="s">
         <v>89</v>
       </c>
@@ -10395,19 +10395,19 @@
       <c r="M58">
         <v>3.529893365339376E-5</v>
       </c>
-      <c r="Q58" s="4">
+      <c r="P58" s="4">
         <v>42594</v>
       </c>
+      <c r="Q58" s="8"/>
       <c r="R58" s="8"/>
       <c r="S58" s="8"/>
       <c r="T58" s="8"/>
-      <c r="U58" s="8"/>
-      <c r="V58">
+      <c r="U58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:21">
       <c r="A59" t="s">
         <v>90</v>
       </c>
@@ -10447,19 +10447,19 @@
       <c r="M59">
         <v>1.3305316679179668E-4</v>
       </c>
-      <c r="Q59" s="4">
+      <c r="P59" s="4">
         <v>42595</v>
       </c>
+      <c r="Q59" s="8"/>
       <c r="R59" s="8"/>
       <c r="S59" s="8"/>
       <c r="T59" s="8"/>
-      <c r="U59" s="8"/>
-      <c r="V59">
+      <c r="U59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:21">
       <c r="A60" t="s">
         <v>92</v>
       </c>
@@ -10499,19 +10499,19 @@
       <c r="M60">
         <v>1.3305316679179668E-4</v>
       </c>
-      <c r="Q60" s="4">
+      <c r="P60" s="4">
         <v>42596</v>
       </c>
+      <c r="Q60" s="8"/>
       <c r="R60" s="8"/>
       <c r="S60" s="8"/>
       <c r="T60" s="8"/>
-      <c r="U60" s="8"/>
-      <c r="V60">
+      <c r="U60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:21">
       <c r="A61" t="s">
         <v>93</v>
       </c>
@@ -10551,19 +10551,19 @@
       <c r="M61">
         <v>1.3305316679179668E-4</v>
       </c>
-      <c r="Q61" s="4">
+      <c r="P61" s="4">
         <v>42597</v>
       </c>
+      <c r="Q61" s="8"/>
       <c r="R61" s="8"/>
       <c r="S61" s="8"/>
       <c r="T61" s="8"/>
-      <c r="U61" s="8"/>
-      <c r="V61">
+      <c r="U61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:21">
       <c r="A62" t="s">
         <v>94</v>
       </c>
@@ -10603,19 +10603,19 @@
       <c r="M62">
         <v>1.4882817049510777E-4</v>
       </c>
-      <c r="Q62" s="4">
+      <c r="P62" s="4">
         <v>42598</v>
       </c>
+      <c r="Q62" s="8"/>
       <c r="R62" s="8"/>
       <c r="S62" s="8"/>
       <c r="T62" s="8"/>
-      <c r="U62" s="8"/>
-      <c r="V62">
+      <c r="U62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:21">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -10655,21 +10655,21 @@
       <c r="M63">
         <v>1.4882817049510777E-4</v>
       </c>
-      <c r="Q63" s="4">
+      <c r="P63" s="4">
         <v>42599</v>
       </c>
-      <c r="R63" s="8">
+      <c r="Q63" s="8">
         <v>1</v>
       </c>
+      <c r="R63" s="8"/>
       <c r="S63" s="8"/>
       <c r="T63" s="8"/>
-      <c r="U63" s="8"/>
-      <c r="V63">
+      <c r="U63">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:21">
       <c r="A64" t="s">
         <v>97</v>
       </c>
@@ -10709,21 +10709,21 @@
       <c r="M64">
         <v>1.4882817049510777E-4</v>
       </c>
-      <c r="Q64" s="4">
+      <c r="P64" s="4">
         <v>42600</v>
       </c>
+      <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
       <c r="S64" s="8"/>
-      <c r="T64" s="8"/>
-      <c r="U64" s="8">
+      <c r="T64" s="8">
         <v>1</v>
       </c>
-      <c r="V64">
+      <c r="U64">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:21">
       <c r="A65" t="s">
         <v>98</v>
       </c>
@@ -10763,23 +10763,23 @@
       <c r="M65">
         <v>5.7482113334117457E-5</v>
       </c>
-      <c r="Q65" s="4">
+      <c r="P65" s="4">
         <v>42601</v>
+      </c>
+      <c r="Q65" s="8">
+        <v>1</v>
       </c>
       <c r="R65" s="8">
         <v>1</v>
       </c>
-      <c r="S65" s="8">
-        <v>1</v>
-      </c>
+      <c r="S65" s="8"/>
       <c r="T65" s="8"/>
-      <c r="U65" s="8"/>
-      <c r="V65">
+      <c r="U65">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:21">
       <c r="A66" t="s">
         <v>100</v>
       </c>
@@ -10819,19 +10819,19 @@
       <c r="M66">
         <v>5.7482113334117457E-5</v>
       </c>
-      <c r="Q66" s="4">
+      <c r="P66" s="4">
         <v>42602</v>
       </c>
+      <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
       <c r="S66" s="8"/>
       <c r="T66" s="8"/>
-      <c r="U66" s="8"/>
-      <c r="V66">
+      <c r="U66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:21">
       <c r="A67" t="s">
         <v>101</v>
       </c>
@@ -10871,19 +10871,19 @@
       <c r="M67">
         <v>5.7482113334117457E-5</v>
       </c>
-      <c r="Q67" s="4">
+      <c r="P67" s="4">
         <v>42603</v>
       </c>
+      <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
       <c r="S67" s="8"/>
       <c r="T67" s="8"/>
-      <c r="U67" s="8"/>
-      <c r="V67">
-        <f t="shared" ref="V67:V130" si="1">SUM(R67:U67)</f>
+      <c r="U67">
+        <f t="shared" ref="U67:U130" si="1">SUM(Q67:T67)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:21">
       <c r="A68" t="s">
         <v>102</v>
       </c>
@@ -10923,25 +10923,25 @@
       <c r="M68">
         <v>9.4242190243676305E-5</v>
       </c>
-      <c r="Q68" s="4">
+      <c r="P68" s="4">
         <v>42604</v>
       </c>
-      <c r="R68" s="8">
+      <c r="Q68" s="8">
         <v>2</v>
       </c>
-      <c r="S68" s="8"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="8">
+        <v>1</v>
+      </c>
       <c r="T68" s="8">
-        <v>1</v>
-      </c>
-      <c r="U68" s="8">
         <v>2</v>
       </c>
-      <c r="V68">
+      <c r="U68">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:21">
       <c r="A69" t="s">
         <v>104</v>
       </c>
@@ -10981,23 +10981,23 @@
       <c r="M69">
         <v>9.4242190243676305E-5</v>
       </c>
-      <c r="Q69" s="4">
+      <c r="P69" s="4">
         <v>42605</v>
       </c>
+      <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
-      <c r="S69" s="8"/>
+      <c r="S69" s="8">
+        <v>1</v>
+      </c>
       <c r="T69" s="8">
         <v>1</v>
       </c>
-      <c r="U69" s="8">
-        <v>1</v>
-      </c>
-      <c r="V69">
+      <c r="U69">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:21">
       <c r="A70" t="s">
         <v>105</v>
       </c>
@@ -11037,23 +11037,23 @@
       <c r="M70">
         <v>9.4242190243676305E-5</v>
       </c>
-      <c r="Q70" s="4">
+      <c r="P70" s="4">
         <v>42606</v>
       </c>
+      <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
-      <c r="S70" s="8"/>
+      <c r="S70" s="8">
+        <v>3</v>
+      </c>
       <c r="T70" s="8">
-        <v>3</v>
-      </c>
-      <c r="U70" s="8">
         <v>1</v>
       </c>
-      <c r="V70">
+      <c r="U70">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:21">
       <c r="A71" t="s">
         <v>106</v>
       </c>
@@ -11093,23 +11093,23 @@
       <c r="M71">
         <v>1.4936768275219947E-4</v>
       </c>
-      <c r="Q71" s="4">
+      <c r="P71" s="4">
         <v>42607</v>
       </c>
-      <c r="R71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8">
+        <v>1</v>
+      </c>
       <c r="S71" s="8">
-        <v>1</v>
-      </c>
-      <c r="T71" s="8">
         <v>4</v>
       </c>
-      <c r="U71" s="8"/>
-      <c r="V71">
+      <c r="T71" s="8"/>
+      <c r="U71">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:21">
       <c r="A72" t="s">
         <v>108</v>
       </c>
@@ -11149,21 +11149,21 @@
       <c r="M72">
         <v>1.4936768275219947E-4</v>
       </c>
-      <c r="Q72" s="4">
+      <c r="P72" s="4">
         <v>42608</v>
       </c>
+      <c r="Q72" s="8"/>
       <c r="R72" s="8"/>
       <c r="S72" s="8"/>
-      <c r="T72" s="8"/>
-      <c r="U72" s="8">
+      <c r="T72" s="8">
         <v>1</v>
       </c>
-      <c r="V72">
+      <c r="U72">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:21">
       <c r="A73" t="s">
         <v>109</v>
       </c>
@@ -11203,25 +11203,25 @@
       <c r="M73">
         <v>1.4936768275219947E-4</v>
       </c>
-      <c r="Q73" s="4">
+      <c r="P73" s="4">
         <v>42609</v>
       </c>
-      <c r="R73" s="8">
+      <c r="Q73" s="8">
         <v>1</v>
       </c>
-      <c r="S73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8">
+        <v>2</v>
+      </c>
       <c r="T73" s="8">
-        <v>2</v>
-      </c>
-      <c r="U73" s="8">
         <v>4</v>
       </c>
-      <c r="V73">
+      <c r="U73">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:21">
       <c r="A74" t="s">
         <v>110</v>
       </c>
@@ -11261,25 +11261,25 @@
       <c r="M74">
         <v>3.5314168781042099E-4</v>
       </c>
-      <c r="Q74" s="4">
+      <c r="P74" s="4">
         <v>42610</v>
       </c>
-      <c r="R74" s="8">
+      <c r="Q74" s="8">
         <v>2</v>
       </c>
-      <c r="S74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="8">
+        <v>4</v>
+      </c>
       <c r="T74" s="8">
-        <v>4</v>
-      </c>
-      <c r="U74" s="8">
         <v>1</v>
       </c>
-      <c r="V74">
+      <c r="U74">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:21">
       <c r="A75" t="s">
         <v>112</v>
       </c>
@@ -11319,23 +11319,23 @@
       <c r="M75">
         <v>3.5314168781042099E-4</v>
       </c>
-      <c r="Q75" s="4">
+      <c r="P75" s="4">
         <v>42611</v>
       </c>
-      <c r="R75" s="8">
+      <c r="Q75" s="8">
         <v>2</v>
       </c>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8">
+      <c r="R75" s="8"/>
+      <c r="S75" s="8">
         <v>3</v>
       </c>
-      <c r="U75" s="8"/>
-      <c r="V75">
+      <c r="T75" s="8"/>
+      <c r="U75">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:21">
       <c r="A76" t="s">
         <v>113</v>
       </c>
@@ -11375,21 +11375,21 @@
       <c r="M76">
         <v>3.5314168781042099E-4</v>
       </c>
-      <c r="Q76" s="4">
+      <c r="P76" s="4">
         <v>42612</v>
       </c>
+      <c r="Q76" s="8"/>
       <c r="R76" s="8"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8">
+      <c r="S76" s="8">
         <v>5</v>
       </c>
-      <c r="U76" s="8"/>
-      <c r="V76">
+      <c r="T76" s="8"/>
+      <c r="U76">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:21">
       <c r="A77" t="s">
         <v>114</v>
       </c>
@@ -11429,27 +11429,27 @@
       <c r="M77">
         <v>2.6211969088762999E-4</v>
       </c>
-      <c r="Q77" s="4">
+      <c r="P77" s="4">
         <v>42613</v>
       </c>
+      <c r="Q77" s="8">
+        <v>3</v>
+      </c>
       <c r="R77" s="8">
+        <v>1</v>
+      </c>
+      <c r="S77" s="8">
+        <v>12</v>
+      </c>
+      <c r="T77" s="8">
         <v>3</v>
       </c>
-      <c r="S77" s="8">
-        <v>1</v>
-      </c>
-      <c r="T77" s="8">
-        <v>12</v>
-      </c>
-      <c r="U77" s="8">
-        <v>3</v>
-      </c>
-      <c r="V77">
+      <c r="U77">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:21">
       <c r="A78" t="s">
         <v>116</v>
       </c>
@@ -11489,25 +11489,25 @@
       <c r="M78">
         <v>2.6211969088762999E-4</v>
       </c>
-      <c r="Q78" s="4">
+      <c r="P78" s="4">
         <v>42614</v>
       </c>
-      <c r="R78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8">
+        <v>3</v>
+      </c>
       <c r="S78" s="8">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="T78" s="8">
-        <v>13</v>
-      </c>
-      <c r="U78" s="8">
         <v>2</v>
       </c>
-      <c r="V78">
+      <c r="U78">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:21">
       <c r="A79" t="s">
         <v>117</v>
       </c>
@@ -11547,25 +11547,25 @@
       <c r="M79">
         <v>2.6211969088762999E-4</v>
       </c>
-      <c r="Q79" s="4">
+      <c r="P79" s="4">
         <v>42615</v>
       </c>
-      <c r="R79" s="8"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="8">
+        <v>1</v>
+      </c>
       <c r="S79" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T79" s="8">
-        <v>8</v>
-      </c>
-      <c r="U79" s="8">
         <v>5</v>
       </c>
-      <c r="V79">
+      <c r="U79">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:22">
+    <row r="80" spans="1:21">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -11605,23 +11605,23 @@
       <c r="M80">
         <v>3.4858507569879293E-4</v>
       </c>
-      <c r="Q80" s="4">
+      <c r="P80" s="4">
         <v>42616</v>
       </c>
+      <c r="Q80" s="8"/>
       <c r="R80" s="8"/>
-      <c r="S80" s="8"/>
+      <c r="S80" s="8">
+        <v>7</v>
+      </c>
       <c r="T80" s="8">
-        <v>7</v>
-      </c>
-      <c r="U80" s="8">
         <v>2</v>
       </c>
-      <c r="V80">
+      <c r="U80">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:22">
+    <row r="81" spans="1:21">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -11661,25 +11661,25 @@
       <c r="M81">
         <v>3.4858507569879293E-4</v>
       </c>
-      <c r="Q81" s="4">
+      <c r="P81" s="4">
         <v>42617</v>
       </c>
-      <c r="R81" s="8">
+      <c r="Q81" s="8">
         <v>1</v>
       </c>
-      <c r="S81" s="8"/>
+      <c r="R81" s="8"/>
+      <c r="S81" s="8">
+        <v>3</v>
+      </c>
       <c r="T81" s="8">
-        <v>3</v>
-      </c>
-      <c r="U81" s="8">
         <v>2</v>
       </c>
-      <c r="V81">
+      <c r="U81">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:22">
+    <row r="82" spans="1:21">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -11719,23 +11719,23 @@
       <c r="M82">
         <v>3.4858507569879293E-4</v>
       </c>
-      <c r="Q82" s="4">
+      <c r="P82" s="4">
         <v>42618</v>
       </c>
+      <c r="Q82" s="8"/>
       <c r="R82" s="8"/>
-      <c r="S82" s="8"/>
+      <c r="S82" s="8">
+        <v>2</v>
+      </c>
       <c r="T82" s="8">
-        <v>2</v>
-      </c>
-      <c r="U82" s="8">
         <v>3</v>
       </c>
-      <c r="V82">
+      <c r="U82">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:22">
+    <row r="83" spans="1:21">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -11775,27 +11775,27 @@
       <c r="M83">
         <v>1.127141440520063E-4</v>
       </c>
-      <c r="Q83" s="4">
+      <c r="P83" s="4">
         <v>42619</v>
+      </c>
+      <c r="Q83" s="8">
+        <v>1</v>
       </c>
       <c r="R83" s="8">
         <v>1</v>
       </c>
       <c r="S83" s="8">
+        <v>15</v>
+      </c>
+      <c r="T83" s="8">
         <v>1</v>
       </c>
-      <c r="T83" s="8">
-        <v>15</v>
-      </c>
-      <c r="U83" s="8">
-        <v>1</v>
-      </c>
-      <c r="V83">
+      <c r="U83">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:22">
+    <row r="84" spans="1:21">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -11835,27 +11835,27 @@
       <c r="M84">
         <v>1.127141440520063E-4</v>
       </c>
-      <c r="Q84" s="4">
+      <c r="P84" s="4">
         <v>42620</v>
       </c>
+      <c r="Q84" s="8">
+        <v>14</v>
+      </c>
       <c r="R84" s="8">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="S84" s="8">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="T84" s="8">
-        <v>62</v>
-      </c>
-      <c r="U84" s="8">
         <v>2</v>
       </c>
-      <c r="V84">
+      <c r="U84">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:22">
+    <row r="85" spans="1:21">
       <c r="A85" t="s">
         <v>21</v>
       </c>
@@ -11895,27 +11895,27 @@
       <c r="M85">
         <v>1.127141440520063E-4</v>
       </c>
-      <c r="Q85" s="4">
+      <c r="P85" s="4">
         <v>42621</v>
       </c>
+      <c r="Q85" s="8">
+        <v>5</v>
+      </c>
       <c r="R85" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S85" s="8">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="T85" s="8">
-        <v>24</v>
-      </c>
-      <c r="U85" s="8">
         <v>2</v>
       </c>
-      <c r="V85">
+      <c r="U85">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:22">
+    <row r="86" spans="1:21">
       <c r="A86" t="s">
         <v>22</v>
       </c>
@@ -11955,27 +11955,27 @@
       <c r="M86">
         <v>3.9656792068853974E-5</v>
       </c>
-      <c r="Q86" s="4">
+      <c r="P86" s="4">
         <v>42622</v>
       </c>
+      <c r="Q86" s="8">
+        <v>8</v>
+      </c>
       <c r="R86" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S86" s="8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="T86" s="8">
-        <v>16</v>
-      </c>
-      <c r="U86" s="8">
         <v>2</v>
       </c>
-      <c r="V86">
+      <c r="U86">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:22">
+    <row r="87" spans="1:21">
       <c r="A87" t="s">
         <v>24</v>
       </c>
@@ -12015,27 +12015,27 @@
       <c r="M87">
         <v>3.9656792068853974E-5</v>
       </c>
-      <c r="Q87" s="4">
+      <c r="P87" s="4">
         <v>42623</v>
       </c>
+      <c r="Q87" s="8">
+        <v>19</v>
+      </c>
       <c r="R87" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S87" s="8">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="T87" s="8">
-        <v>12</v>
-      </c>
-      <c r="U87" s="8">
         <v>1</v>
       </c>
-      <c r="V87">
+      <c r="U87">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:22">
+    <row r="88" spans="1:21">
       <c r="A88" t="s">
         <v>25</v>
       </c>
@@ -12075,27 +12075,27 @@
       <c r="M88">
         <v>3.9656792068853974E-5</v>
       </c>
-      <c r="Q88" s="4">
+      <c r="P88" s="4">
         <v>42624</v>
       </c>
+      <c r="Q88" s="8">
+        <v>17</v>
+      </c>
       <c r="R88" s="8">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="S88" s="8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T88" s="8">
-        <v>10</v>
-      </c>
-      <c r="U88" s="8">
         <v>3</v>
       </c>
-      <c r="V88">
+      <c r="U88">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:22">
+    <row r="89" spans="1:21">
       <c r="A89" t="s">
         <v>121</v>
       </c>
@@ -12135,27 +12135,27 @@
       <c r="M89">
         <v>2.3248336219694465E-4</v>
       </c>
-      <c r="Q89" s="4">
+      <c r="P89" s="4">
         <v>42625</v>
       </c>
+      <c r="Q89" s="8">
+        <v>3</v>
+      </c>
       <c r="R89" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S89" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T89" s="8">
         <v>5</v>
       </c>
-      <c r="U89" s="8">
-        <v>5</v>
-      </c>
-      <c r="V89">
+      <c r="U89">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:22">
+    <row r="90" spans="1:21">
       <c r="A90" t="s">
         <v>123</v>
       </c>
@@ -12195,27 +12195,27 @@
       <c r="M90">
         <v>2.3248336219694465E-4</v>
       </c>
-      <c r="Q90" s="4">
+      <c r="P90" s="4">
         <v>42626</v>
       </c>
+      <c r="Q90" s="8">
+        <v>7</v>
+      </c>
       <c r="R90" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S90" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T90" s="8">
-        <v>4</v>
-      </c>
-      <c r="U90" s="8">
         <v>10</v>
       </c>
-      <c r="V90">
+      <c r="U90">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:22">
+    <row r="91" spans="1:21">
       <c r="A91" t="s">
         <v>124</v>
       </c>
@@ -12255,27 +12255,27 @@
       <c r="M91">
         <v>2.3248336219694465E-4</v>
       </c>
-      <c r="Q91" s="4">
+      <c r="P91" s="4">
         <v>42627</v>
       </c>
+      <c r="Q91" s="8">
+        <v>6</v>
+      </c>
       <c r="R91" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S91" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T91" s="8">
-        <v>5</v>
-      </c>
-      <c r="U91" s="8">
         <v>17</v>
       </c>
-      <c r="V91">
+      <c r="U91">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:22">
+    <row r="92" spans="1:21">
       <c r="A92" t="s">
         <v>26</v>
       </c>
@@ -12315,27 +12315,27 @@
       <c r="M92">
         <v>1.7850279982667416E-4</v>
       </c>
-      <c r="Q92" s="4">
+      <c r="P92" s="4">
         <v>42628</v>
       </c>
+      <c r="Q92" s="8">
+        <v>1</v>
+      </c>
       <c r="R92" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S92" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T92" s="8">
-        <v>5</v>
-      </c>
-      <c r="U92" s="8">
         <v>24</v>
       </c>
-      <c r="V92">
+      <c r="U92">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:22">
+    <row r="93" spans="1:21">
       <c r="A93" t="s">
         <v>28</v>
       </c>
@@ -12375,27 +12375,27 @@
       <c r="M93">
         <v>1.7850279982667416E-4</v>
       </c>
-      <c r="Q93" s="4">
+      <c r="P93" s="4">
         <v>42629</v>
+      </c>
+      <c r="Q93" s="8">
+        <v>10</v>
       </c>
       <c r="R93" s="8">
         <v>10</v>
       </c>
       <c r="S93" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T93" s="8">
-        <v>8</v>
-      </c>
-      <c r="U93" s="8">
         <v>22</v>
       </c>
-      <c r="V93">
+      <c r="U93">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:22">
+    <row r="94" spans="1:21">
       <c r="A94" t="s">
         <v>29</v>
       </c>
@@ -12435,27 +12435,27 @@
       <c r="M94">
         <v>1.7850279982667416E-4</v>
       </c>
-      <c r="Q94" s="4">
+      <c r="P94" s="4">
         <v>42630</v>
       </c>
+      <c r="Q94" s="8">
+        <v>7</v>
+      </c>
       <c r="R94" s="8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S94" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T94" s="8">
-        <v>3</v>
-      </c>
-      <c r="U94" s="8">
         <v>23</v>
       </c>
-      <c r="V94">
+      <c r="U94">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:22">
+    <row r="95" spans="1:21">
       <c r="A95" t="s">
         <v>30</v>
       </c>
@@ -12495,25 +12495,25 @@
       <c r="M95">
         <v>1.2912396050523967E-4</v>
       </c>
-      <c r="Q95" s="4">
+      <c r="P95" s="4">
         <v>42631</v>
       </c>
-      <c r="R95" s="8">
+      <c r="Q95" s="8">
         <v>1</v>
       </c>
-      <c r="S95" s="8"/>
+      <c r="R95" s="8"/>
+      <c r="S95" s="8">
+        <v>1</v>
+      </c>
       <c r="T95" s="8">
-        <v>1</v>
-      </c>
-      <c r="U95" s="8">
         <v>26</v>
       </c>
-      <c r="V95">
+      <c r="U95">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:22">
+    <row r="96" spans="1:21">
       <c r="A96" t="s">
         <v>32</v>
       </c>
@@ -12553,21 +12553,21 @@
       <c r="M96">
         <v>1.2912396050523967E-4</v>
       </c>
-      <c r="Q96" s="4">
+      <c r="P96" s="4">
         <v>42632</v>
       </c>
+      <c r="Q96" s="8"/>
       <c r="R96" s="8"/>
       <c r="S96" s="8"/>
-      <c r="T96" s="8"/>
-      <c r="U96" s="8">
+      <c r="T96" s="8">
         <v>22</v>
       </c>
-      <c r="V96">
+      <c r="U96">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:22">
+    <row r="97" spans="1:21">
       <c r="A97" t="s">
         <v>33</v>
       </c>
@@ -12607,21 +12607,21 @@
       <c r="M97">
         <v>1.2912396050523967E-4</v>
       </c>
-      <c r="Q97" s="4">
+      <c r="P97" s="4">
         <v>42633</v>
       </c>
+      <c r="Q97" s="8"/>
       <c r="R97" s="8"/>
       <c r="S97" s="8"/>
-      <c r="T97" s="8"/>
-      <c r="U97" s="8">
+      <c r="T97" s="8">
         <v>34</v>
       </c>
-      <c r="V97">
+      <c r="U97">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:22">
+    <row r="98" spans="1:21">
       <c r="A98" t="s">
         <v>34</v>
       </c>
@@ -12661,21 +12661,21 @@
       <c r="M98">
         <v>1.7647726053837687E-4</v>
       </c>
-      <c r="Q98" s="4">
+      <c r="P98" s="4">
         <v>42634</v>
       </c>
+      <c r="Q98" s="8"/>
       <c r="R98" s="8"/>
       <c r="S98" s="8"/>
-      <c r="T98" s="8"/>
-      <c r="U98" s="8">
+      <c r="T98" s="8">
         <v>45</v>
       </c>
-      <c r="V98">
+      <c r="U98">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:22">
+    <row r="99" spans="1:21">
       <c r="A99" t="s">
         <v>36</v>
       </c>
@@ -12715,23 +12715,23 @@
       <c r="M99">
         <v>1.7647726053837687E-4</v>
       </c>
-      <c r="Q99" s="4">
+      <c r="P99" s="4">
         <v>42635</v>
       </c>
+      <c r="Q99" s="8"/>
       <c r="R99" s="8"/>
-      <c r="S99" s="8"/>
+      <c r="S99" s="8">
+        <v>1</v>
+      </c>
       <c r="T99" s="8">
-        <v>1</v>
-      </c>
-      <c r="U99" s="8">
         <v>31</v>
       </c>
-      <c r="V99">
+      <c r="U99">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:22">
+    <row r="100" spans="1:21">
       <c r="A100" t="s">
         <v>37</v>
       </c>
@@ -12771,23 +12771,23 @@
       <c r="M100">
         <v>1.7647726053837687E-4</v>
       </c>
-      <c r="Q100" s="4">
+      <c r="P100" s="4">
         <v>42636</v>
       </c>
-      <c r="R100" s="8"/>
-      <c r="S100" s="8">
+      <c r="Q100" s="8"/>
+      <c r="R100" s="8">
         <v>1</v>
       </c>
-      <c r="T100" s="8"/>
-      <c r="U100" s="8">
+      <c r="S100" s="8"/>
+      <c r="T100" s="8">
         <v>25</v>
       </c>
-      <c r="V100">
+      <c r="U100">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:22">
+    <row r="101" spans="1:21">
       <c r="A101" t="s">
         <v>38</v>
       </c>
@@ -12827,21 +12827,21 @@
       <c r="M101">
         <v>2.3218412025016733E-5</v>
       </c>
-      <c r="Q101" s="4">
+      <c r="P101" s="4">
         <v>42637</v>
       </c>
+      <c r="Q101" s="8"/>
       <c r="R101" s="8"/>
       <c r="S101" s="8"/>
-      <c r="T101" s="8"/>
-      <c r="U101" s="8">
+      <c r="T101" s="8">
         <v>27</v>
       </c>
-      <c r="V101">
+      <c r="U101">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:22">
+    <row r="102" spans="1:21">
       <c r="A102" t="s">
         <v>40</v>
       </c>
@@ -12881,23 +12881,23 @@
       <c r="M102">
         <v>2.3218412025016733E-5</v>
       </c>
-      <c r="Q102" s="4">
+      <c r="P102" s="4">
         <v>42638</v>
       </c>
+      <c r="Q102" s="8"/>
       <c r="R102" s="8"/>
-      <c r="S102" s="8"/>
+      <c r="S102" s="8">
+        <v>1</v>
+      </c>
       <c r="T102" s="8">
-        <v>1</v>
-      </c>
-      <c r="U102" s="8">
         <v>11</v>
       </c>
-      <c r="V102">
+      <c r="U102">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:22">
+    <row r="103" spans="1:21">
       <c r="A103" t="s">
         <v>41</v>
       </c>
@@ -12937,21 +12937,21 @@
       <c r="M103">
         <v>2.3218412025016733E-5</v>
       </c>
-      <c r="Q103" s="4">
+      <c r="P103" s="4">
         <v>42639</v>
       </c>
+      <c r="Q103" s="8"/>
       <c r="R103" s="8"/>
       <c r="S103" s="8"/>
-      <c r="T103" s="8"/>
-      <c r="U103" s="8">
+      <c r="T103" s="8">
         <v>17</v>
       </c>
-      <c r="V103">
+      <c r="U103">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:22">
+    <row r="104" spans="1:21">
       <c r="A104" t="s">
         <v>42</v>
       </c>
@@ -12991,23 +12991,23 @@
       <c r="M104">
         <v>4.4808028178522363E-5</v>
       </c>
-      <c r="Q104" s="4">
+      <c r="P104" s="4">
         <v>42640</v>
       </c>
+      <c r="Q104" s="8"/>
       <c r="R104" s="8"/>
-      <c r="S104" s="8"/>
+      <c r="S104" s="8">
+        <v>1</v>
+      </c>
       <c r="T104" s="8">
-        <v>1</v>
-      </c>
-      <c r="U104" s="8">
         <v>33</v>
       </c>
-      <c r="V104">
+      <c r="U104">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:22">
+    <row r="105" spans="1:21">
       <c r="A105" t="s">
         <v>44</v>
       </c>
@@ -13047,23 +13047,23 @@
       <c r="M105">
         <v>4.4808028178522363E-5</v>
       </c>
-      <c r="Q105" s="4">
+      <c r="P105" s="4">
         <v>42641</v>
       </c>
+      <c r="Q105" s="8"/>
       <c r="R105" s="8"/>
-      <c r="S105" s="8"/>
+      <c r="S105" s="8">
+        <v>1</v>
+      </c>
       <c r="T105" s="8">
-        <v>1</v>
-      </c>
-      <c r="U105" s="8">
-        <v>15</v>
-      </c>
-      <c r="V105">
+        <v>15</v>
+      </c>
+      <c r="U105">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:22">
+    <row r="106" spans="1:21">
       <c r="A106" t="s">
         <v>45</v>
       </c>
@@ -13103,27 +13103,27 @@
       <c r="M106">
         <v>4.4808028178522363E-5</v>
       </c>
-      <c r="Q106" s="4">
+      <c r="P106" s="4">
         <v>42642</v>
       </c>
+      <c r="Q106" s="8">
+        <v>1</v>
+      </c>
       <c r="R106" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S106" s="8">
         <v>2</v>
       </c>
       <c r="T106" s="8">
-        <v>2</v>
-      </c>
-      <c r="U106" s="8">
         <v>9</v>
       </c>
-      <c r="V106">
+      <c r="U106">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:22">
+    <row r="107" spans="1:21">
       <c r="A107" t="s">
         <v>46</v>
       </c>
@@ -13163,25 +13163,25 @@
       <c r="M107">
         <v>4.7328328946605325E-5</v>
       </c>
-      <c r="Q107" s="4">
+      <c r="P107" s="4">
         <v>42643</v>
       </c>
-      <c r="R107" s="8">
+      <c r="Q107" s="8">
         <v>1</v>
       </c>
-      <c r="S107" s="8"/>
+      <c r="R107" s="8"/>
+      <c r="S107" s="8">
+        <v>2</v>
+      </c>
       <c r="T107" s="8">
-        <v>2</v>
-      </c>
-      <c r="U107" s="8">
         <v>11</v>
       </c>
-      <c r="V107">
+      <c r="U107">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:22">
+    <row r="108" spans="1:21">
       <c r="A108" t="s">
         <v>48</v>
       </c>
@@ -13221,23 +13221,23 @@
       <c r="M108">
         <v>4.7328328946605325E-5</v>
       </c>
-      <c r="Q108" s="4">
+      <c r="P108" s="4">
         <v>42644</v>
       </c>
+      <c r="Q108" s="8"/>
       <c r="R108" s="8"/>
-      <c r="S108" s="8"/>
+      <c r="S108" s="8">
+        <v>1</v>
+      </c>
       <c r="T108" s="8">
-        <v>1</v>
-      </c>
-      <c r="U108" s="8">
         <v>11</v>
       </c>
-      <c r="V108">
+      <c r="U108">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:22">
+    <row r="109" spans="1:21">
       <c r="A109" t="s">
         <v>49</v>
       </c>
@@ -13277,23 +13277,23 @@
       <c r="M109">
         <v>4.7328328946605325E-5</v>
       </c>
-      <c r="Q109" s="4">
+      <c r="P109" s="4">
         <v>42645</v>
       </c>
+      <c r="Q109" s="8"/>
       <c r="R109" s="8"/>
-      <c r="S109" s="8"/>
+      <c r="S109" s="8">
+        <v>2</v>
+      </c>
       <c r="T109" s="8">
-        <v>2</v>
-      </c>
-      <c r="U109" s="8">
         <v>5</v>
       </c>
-      <c r="V109">
+      <c r="U109">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:22">
+    <row r="110" spans="1:21">
       <c r="A110" t="s">
         <v>50</v>
       </c>
@@ -13333,21 +13333,21 @@
       <c r="M110">
         <v>1.1003873078152537E-4</v>
       </c>
-      <c r="Q110" s="4">
+      <c r="P110" s="4">
         <v>42646</v>
       </c>
+      <c r="Q110" s="8"/>
       <c r="R110" s="8"/>
       <c r="S110" s="8"/>
-      <c r="T110" s="8"/>
-      <c r="U110" s="8">
+      <c r="T110" s="8">
         <v>7</v>
       </c>
-      <c r="V110">
+      <c r="U110">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:22">
+    <row r="111" spans="1:21">
       <c r="A111" t="s">
         <v>52</v>
       </c>
@@ -13387,23 +13387,23 @@
       <c r="M111">
         <v>1.1003873078152537E-4</v>
       </c>
-      <c r="Q111" s="4">
+      <c r="P111" s="4">
         <v>42647</v>
       </c>
+      <c r="Q111" s="8"/>
       <c r="R111" s="8"/>
-      <c r="S111" s="8"/>
+      <c r="S111" s="8">
+        <v>1</v>
+      </c>
       <c r="T111" s="8">
-        <v>1</v>
-      </c>
-      <c r="U111" s="8">
         <v>7</v>
       </c>
-      <c r="V111">
+      <c r="U111">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:22">
+    <row r="112" spans="1:21">
       <c r="A112" t="s">
         <v>53</v>
       </c>
@@ -13443,21 +13443,21 @@
       <c r="M112">
         <v>1.1003873078152537E-4</v>
       </c>
-      <c r="Q112" s="4">
+      <c r="P112" s="4">
         <v>42648</v>
       </c>
+      <c r="Q112" s="8"/>
       <c r="R112" s="8"/>
       <c r="S112" s="8"/>
-      <c r="T112" s="8"/>
-      <c r="U112" s="8">
+      <c r="T112" s="8">
         <v>11</v>
       </c>
-      <c r="V112">
+      <c r="U112">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:22">
+    <row r="113" spans="1:21">
       <c r="A113" t="s">
         <v>54</v>
       </c>
@@ -13497,23 +13497,23 @@
       <c r="M113">
         <v>8.3280399849172682E-5</v>
       </c>
-      <c r="Q113" s="4">
+      <c r="P113" s="4">
         <v>42649</v>
       </c>
+      <c r="Q113" s="8"/>
       <c r="R113" s="8"/>
-      <c r="S113" s="8"/>
+      <c r="S113" s="8">
+        <v>1</v>
+      </c>
       <c r="T113" s="8">
-        <v>1</v>
-      </c>
-      <c r="U113" s="8">
         <v>5</v>
       </c>
-      <c r="V113">
+      <c r="U113">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:22">
+    <row r="114" spans="1:21">
       <c r="A114" t="s">
         <v>56</v>
       </c>
@@ -13553,19 +13553,19 @@
       <c r="M114">
         <v>8.3280399849172682E-5</v>
       </c>
-      <c r="Q114" s="4">
+      <c r="P114" s="4">
         <v>42650</v>
       </c>
+      <c r="Q114" s="8"/>
       <c r="R114" s="8"/>
       <c r="S114" s="8"/>
       <c r="T114" s="8"/>
-      <c r="U114" s="8"/>
-      <c r="V114">
+      <c r="U114">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:22">
+    <row r="115" spans="1:21">
       <c r="A115" t="s">
         <v>57</v>
       </c>
@@ -13605,21 +13605,21 @@
       <c r="M115">
         <v>8.3280399849172682E-5</v>
       </c>
-      <c r="Q115" s="4">
+      <c r="P115" s="4">
         <v>42651</v>
       </c>
+      <c r="Q115" s="8"/>
       <c r="R115" s="8"/>
       <c r="S115" s="8"/>
-      <c r="T115" s="8"/>
-      <c r="U115" s="8">
+      <c r="T115" s="8">
         <v>5</v>
       </c>
-      <c r="V115">
+      <c r="U115">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:22">
+    <row r="116" spans="1:21">
       <c r="A116" t="s">
         <v>58</v>
       </c>
@@ -13659,19 +13659,19 @@
       <c r="M116">
         <v>1.7401883087586612E-4</v>
       </c>
-      <c r="Q116" s="4">
+      <c r="P116" s="4">
         <v>42652</v>
       </c>
+      <c r="Q116" s="8"/>
       <c r="R116" s="8"/>
       <c r="S116" s="8"/>
       <c r="T116" s="8"/>
-      <c r="U116" s="8"/>
-      <c r="V116">
+      <c r="U116">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:22">
+    <row r="117" spans="1:21">
       <c r="A117" t="s">
         <v>60</v>
       </c>
@@ -13711,19 +13711,19 @@
       <c r="M117">
         <v>1.7401883087586612E-4</v>
       </c>
-      <c r="Q117" s="4">
+      <c r="P117" s="4">
         <v>42653</v>
       </c>
+      <c r="Q117" s="8"/>
       <c r="R117" s="8"/>
       <c r="S117" s="8"/>
       <c r="T117" s="8"/>
-      <c r="U117" s="8"/>
-      <c r="V117">
+      <c r="U117">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:22">
+    <row r="118" spans="1:21">
       <c r="A118" t="s">
         <v>61</v>
       </c>
@@ -13763,21 +13763,21 @@
       <c r="M118">
         <v>1.7401883087586612E-4</v>
       </c>
-      <c r="Q118" s="4">
+      <c r="P118" s="4">
         <v>42654</v>
       </c>
+      <c r="Q118" s="8"/>
       <c r="R118" s="8"/>
       <c r="S118" s="8"/>
-      <c r="T118" s="8"/>
-      <c r="U118" s="8">
+      <c r="T118" s="8">
         <v>1</v>
       </c>
-      <c r="V118">
+      <c r="U118">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:22">
+    <row r="119" spans="1:21">
       <c r="A119" t="s">
         <v>62</v>
       </c>
@@ -13817,21 +13817,21 @@
       <c r="M119">
         <v>8.6746804299764335E-5</v>
       </c>
-      <c r="Q119" s="4">
+      <c r="P119" s="4">
         <v>42655</v>
       </c>
+      <c r="Q119" s="8"/>
       <c r="R119" s="8"/>
       <c r="S119" s="8"/>
-      <c r="T119" s="8"/>
-      <c r="U119" s="8">
+      <c r="T119" s="8">
         <v>1</v>
       </c>
-      <c r="V119">
+      <c r="U119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:22">
+    <row r="120" spans="1:21">
       <c r="A120" t="s">
         <v>64</v>
       </c>
@@ -13871,19 +13871,19 @@
       <c r="M120">
         <v>8.6746804299764335E-5</v>
       </c>
-      <c r="Q120" s="4">
+      <c r="P120" s="4">
         <v>42656</v>
       </c>
+      <c r="Q120" s="8"/>
       <c r="R120" s="8"/>
       <c r="S120" s="8"/>
       <c r="T120" s="8"/>
-      <c r="U120" s="8"/>
-      <c r="V120">
+      <c r="U120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:22">
+    <row r="121" spans="1:21">
       <c r="A121" t="s">
         <v>65</v>
       </c>
@@ -13923,19 +13923,19 @@
       <c r="M121">
         <v>8.6746804299764335E-5</v>
       </c>
-      <c r="Q121" s="4">
+      <c r="P121" s="4">
         <v>42657</v>
       </c>
+      <c r="Q121" s="8"/>
       <c r="R121" s="8"/>
       <c r="S121" s="8"/>
       <c r="T121" s="8"/>
-      <c r="U121" s="8"/>
-      <c r="V121">
+      <c r="U121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:22">
+    <row r="122" spans="1:21">
       <c r="A122" t="s">
         <v>66</v>
       </c>
@@ -13975,19 +13975,19 @@
       <c r="M122">
         <v>2.1887670300202444E-5</v>
       </c>
-      <c r="Q122" s="4">
+      <c r="P122" s="4">
         <v>42658</v>
       </c>
+      <c r="Q122" s="8"/>
       <c r="R122" s="8"/>
       <c r="S122" s="8"/>
       <c r="T122" s="8"/>
-      <c r="U122" s="8"/>
-      <c r="V122">
+      <c r="U122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:22">
+    <row r="123" spans="1:21">
       <c r="A123" t="s">
         <v>68</v>
       </c>
@@ -14027,19 +14027,19 @@
       <c r="M123">
         <v>2.1887670300202444E-5</v>
       </c>
-      <c r="Q123" s="4">
+      <c r="P123" s="4">
         <v>42659</v>
       </c>
+      <c r="Q123" s="8"/>
       <c r="R123" s="8"/>
       <c r="S123" s="8"/>
       <c r="T123" s="8"/>
-      <c r="U123" s="8"/>
-      <c r="V123">
+      <c r="U123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:22">
+    <row r="124" spans="1:21">
       <c r="A124" t="s">
         <v>69</v>
       </c>
@@ -14079,21 +14079,21 @@
       <c r="M124">
         <v>2.1887670300202444E-5</v>
       </c>
-      <c r="Q124" s="4">
+      <c r="P124" s="4">
         <v>42660</v>
       </c>
+      <c r="Q124" s="8"/>
       <c r="R124" s="8"/>
       <c r="S124" s="8"/>
-      <c r="T124" s="8"/>
-      <c r="U124" s="8">
+      <c r="T124" s="8">
         <v>1</v>
       </c>
-      <c r="V124">
+      <c r="U124">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:22">
+    <row r="125" spans="1:21">
       <c r="A125" t="s">
         <v>70</v>
       </c>
@@ -14133,21 +14133,21 @@
       <c r="M125">
         <v>1.3043955550529063E-4</v>
       </c>
-      <c r="Q125" s="4">
+      <c r="P125" s="4">
         <v>42661</v>
       </c>
+      <c r="Q125" s="8"/>
       <c r="R125" s="8"/>
       <c r="S125" s="8"/>
-      <c r="T125" s="8"/>
-      <c r="U125" s="8">
+      <c r="T125" s="8">
         <v>1</v>
       </c>
-      <c r="V125">
+      <c r="U125">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:22">
+    <row r="126" spans="1:21">
       <c r="A126" t="s">
         <v>72</v>
       </c>
@@ -14187,23 +14187,23 @@
       <c r="M126">
         <v>1.3043955550529063E-4</v>
       </c>
-      <c r="Q126" s="4">
+      <c r="P126" s="4">
         <v>42662</v>
       </c>
-      <c r="R126" s="9">
+      <c r="Q126" s="9">
         <v>2</v>
       </c>
-      <c r="S126" s="9"/>
-      <c r="T126" s="6"/>
-      <c r="U126" s="7">
+      <c r="R126" s="9"/>
+      <c r="S126" s="6"/>
+      <c r="T126" s="7">
         <v>4</v>
       </c>
-      <c r="V126">
+      <c r="U126">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:22">
+    <row r="127" spans="1:21">
       <c r="A127" t="s">
         <v>73</v>
       </c>
@@ -14243,23 +14243,23 @@
       <c r="M127">
         <v>1.3043955550529063E-4</v>
       </c>
-      <c r="Q127" s="4">
+      <c r="P127" s="4">
         <v>42663</v>
       </c>
+      <c r="Q127" s="10"/>
       <c r="R127" s="10"/>
-      <c r="S127" s="10"/>
+      <c r="S127" s="10">
+        <v>1</v>
+      </c>
       <c r="T127" s="10">
-        <v>1</v>
-      </c>
-      <c r="U127" s="10">
         <v>4</v>
       </c>
-      <c r="V127">
+      <c r="U127">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:22">
+    <row r="128" spans="1:21">
       <c r="A128" t="s">
         <v>74</v>
       </c>
@@ -14299,21 +14299,21 @@
       <c r="M128">
         <v>2.1808777819387615E-4</v>
       </c>
-      <c r="Q128" s="4">
+      <c r="P128" s="4">
         <v>42664</v>
       </c>
+      <c r="Q128" s="10"/>
       <c r="R128" s="10"/>
       <c r="S128" s="10"/>
-      <c r="T128" s="10"/>
-      <c r="U128" s="10">
+      <c r="T128" s="10">
         <v>2</v>
       </c>
-      <c r="V128">
+      <c r="U128">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:22">
+    <row r="129" spans="1:21">
       <c r="A129" t="s">
         <v>76</v>
       </c>
@@ -14353,19 +14353,19 @@
       <c r="M129">
         <v>2.1808777819387615E-4</v>
       </c>
-      <c r="Q129" s="4">
+      <c r="P129" s="4">
         <v>42665</v>
       </c>
+      <c r="Q129" s="10"/>
       <c r="R129" s="10"/>
       <c r="S129" s="10"/>
       <c r="T129" s="10"/>
-      <c r="U129" s="10"/>
-      <c r="V129">
+      <c r="U129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:22">
+    <row r="130" spans="1:21">
       <c r="A130" t="s">
         <v>77</v>
       </c>
@@ -14405,21 +14405,21 @@
       <c r="M130">
         <v>2.1808777819387615E-4</v>
       </c>
-      <c r="Q130" s="4">
+      <c r="P130" s="4">
         <v>42666</v>
       </c>
+      <c r="Q130" s="10"/>
       <c r="R130" s="10"/>
       <c r="S130" s="10"/>
-      <c r="T130" s="10"/>
-      <c r="U130" s="10">
+      <c r="T130" s="10">
         <v>3</v>
       </c>
-      <c r="V130">
+      <c r="U130">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:22">
+    <row r="131" spans="1:21">
       <c r="A131" t="s">
         <v>78</v>
       </c>
@@ -14459,19 +14459,19 @@
       <c r="M131">
         <v>2.080920385196805E-4</v>
       </c>
-      <c r="Q131" s="4">
+      <c r="P131" s="4">
         <v>42667</v>
       </c>
+      <c r="Q131" s="10"/>
       <c r="R131" s="10"/>
       <c r="S131" s="10"/>
       <c r="T131" s="10"/>
-      <c r="U131" s="10"/>
-      <c r="V131">
-        <f t="shared" ref="V131:V133" si="2">SUM(R131:U131)</f>
+      <c r="U131">
+        <f t="shared" ref="U131:U133" si="2">SUM(Q131:T131)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:22">
+    <row r="132" spans="1:21">
       <c r="A132" t="s">
         <v>80</v>
       </c>
@@ -14511,21 +14511,21 @@
       <c r="M132">
         <v>2.080920385196805E-4</v>
       </c>
-      <c r="Q132" s="4">
+      <c r="P132" s="4">
         <v>42668</v>
       </c>
+      <c r="Q132" s="10"/>
       <c r="R132" s="10"/>
       <c r="S132" s="10"/>
-      <c r="T132" s="10"/>
-      <c r="U132" s="10">
+      <c r="T132" s="10">
         <v>2</v>
       </c>
-      <c r="V132">
+      <c r="U132">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:22">
+    <row r="133" spans="1:21">
       <c r="A133" t="s">
         <v>81</v>
       </c>
@@ -14565,18 +14565,18 @@
       <c r="M133">
         <v>2.080920385196805E-4</v>
       </c>
-      <c r="Q133" s="4">
+      <c r="P133" s="4">
         <v>42669</v>
       </c>
+      <c r="Q133" s="10"/>
       <c r="R133" s="10"/>
       <c r="S133" s="10"/>
-      <c r="T133" s="10"/>
-      <c r="V133">
+      <c r="U133">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:22">
+    <row r="134" spans="1:21">
       <c r="A134" t="s">
         <v>82</v>
       </c>
@@ -14617,7 +14617,7 @@
         <v>4.7488251584582031E-4</v>
       </c>
     </row>
-    <row r="135" spans="1:22">
+    <row r="135" spans="1:21">
       <c r="A135" t="s">
         <v>84</v>
       </c>
@@ -14658,7 +14658,7 @@
         <v>4.7488251584582031E-4</v>
       </c>
     </row>
-    <row r="136" spans="1:22">
+    <row r="136" spans="1:21">
       <c r="A136" t="s">
         <v>85</v>
       </c>
@@ -14699,7 +14699,7 @@
         <v>4.7488251584582031E-4</v>
       </c>
     </row>
-    <row r="137" spans="1:22">
+    <row r="137" spans="1:21">
       <c r="A137" t="s">
         <v>86</v>
       </c>
@@ -14740,7 +14740,7 @@
         <v>2.1469834609888494E-4</v>
       </c>
     </row>
-    <row r="138" spans="1:22">
+    <row r="138" spans="1:21">
       <c r="A138" t="s">
         <v>88</v>
       </c>
@@ -14781,7 +14781,7 @@
         <v>2.1469834609888494E-4</v>
       </c>
     </row>
-    <row r="139" spans="1:22">
+    <row r="139" spans="1:21">
       <c r="A139" t="s">
         <v>89</v>
       </c>
@@ -14822,7 +14822,7 @@
         <v>2.1469834609888494E-4</v>
       </c>
     </row>
-    <row r="140" spans="1:22">
+    <row r="140" spans="1:21">
       <c r="A140" t="s">
         <v>90</v>
       </c>
@@ -14863,7 +14863,7 @@
         <v>4.4180414988659322E-4</v>
       </c>
     </row>
-    <row r="141" spans="1:22">
+    <row r="141" spans="1:21">
       <c r="A141" t="s">
         <v>92</v>
       </c>
@@ -14904,7 +14904,7 @@
         <v>4.4180414988659322E-4</v>
       </c>
     </row>
-    <row r="142" spans="1:22">
+    <row r="142" spans="1:21">
       <c r="A142" t="s">
         <v>93</v>
       </c>
@@ -14945,7 +14945,7 @@
         <v>4.4180414988659322E-4</v>
       </c>
     </row>
-    <row r="143" spans="1:22">
+    <row r="143" spans="1:21">
       <c r="A143" t="s">
         <v>94</v>
       </c>
@@ -14986,7 +14986,7 @@
         <v>3.9904503501020372E-4</v>
       </c>
     </row>
-    <row r="144" spans="1:22">
+    <row r="144" spans="1:21">
       <c r="A144" t="s">
         <v>96</v>
       </c>
